--- a/latest/analysis_data/from_pema/processing_batch1/taxonomic_assignments/Extended_final_table_July2019_ITS_noBlank.xlsx
+++ b/latest/analysis_data/from_pema/processing_batch1/taxonomic_assignments/Extended_final_table_July2019_ITS_noBlank.xlsx
@@ -66,9 +66,6 @@
     <t>ARMS_TZS_Angbat_20180711_20181106_MF500_ETOH</t>
   </si>
   <si>
-    <t>ARMS_BelgianCoast_AZFPin_20180712_20180818_MF500_ETOH</t>
-  </si>
-  <si>
     <t>ARMS_Roscoff_BasBloS1_20180711_20181025_SF40_ETOH</t>
   </si>
   <si>
@@ -1912,6 +1909,9 @@
   </si>
   <si>
     <t>ARMS_GulfOfPiran_Fornace_20180815_20181118_MF500_DMSO</t>
+  </si>
+  <si>
+    <t>ARMS_BelgiumCoast_AZFPin_20180712_20180818_MF500_ETOH</t>
   </si>
 </sst>
 </file>
@@ -2185,8 +2185,8 @@
   </sheetPr>
   <dimension ref="A1:Z256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2205,7 +2205,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -2241,39 +2241,39 @@
         <v>14</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3">
         <v>100</v>
@@ -2345,15 +2345,15 @@
         <v>0</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -2425,15 +2425,15 @@
         <v>101</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -2505,15 +2505,15 @@
         <v>242</v>
       </c>
       <c r="Y4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2585,15 +2585,15 @@
         <v>0</v>
       </c>
       <c r="Y5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -2665,15 +2665,15 @@
         <v>0</v>
       </c>
       <c r="Y6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -2745,15 +2745,15 @@
         <v>0</v>
       </c>
       <c r="Y7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2825,15 +2825,15 @@
         <v>0</v>
       </c>
       <c r="Y8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -2905,15 +2905,15 @@
         <v>0</v>
       </c>
       <c r="Y9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z9" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -2985,15 +2985,15 @@
         <v>0</v>
       </c>
       <c r="Y10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z10" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -3065,15 +3065,15 @@
         <v>0</v>
       </c>
       <c r="Y11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z11" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -3145,15 +3145,15 @@
         <v>0</v>
       </c>
       <c r="Y12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z12" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -3225,15 +3225,15 @@
         <v>0</v>
       </c>
       <c r="Y13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z13" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -3305,15 +3305,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z14" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
@@ -3385,15 +3385,15 @@
         <v>0</v>
       </c>
       <c r="Y15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z15" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -3465,15 +3465,15 @@
         <v>0</v>
       </c>
       <c r="Y16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z16" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -3545,15 +3545,15 @@
         <v>100</v>
       </c>
       <c r="Y17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z17" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -3625,15 +3625,15 @@
         <v>0</v>
       </c>
       <c r="Y18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z18" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -3705,15 +3705,15 @@
         <v>0</v>
       </c>
       <c r="Y19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z19" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -3785,15 +3785,15 @@
         <v>0</v>
       </c>
       <c r="Y20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z20" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -3865,15 +3865,15 @@
         <v>0</v>
       </c>
       <c r="Y21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z21" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -3945,15 +3945,15 @@
         <v>0</v>
       </c>
       <c r="Y22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z22" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -4025,15 +4025,15 @@
         <v>0</v>
       </c>
       <c r="Y23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z23" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -4105,15 +4105,15 @@
         <v>0</v>
       </c>
       <c r="Y24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z24" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -4185,15 +4185,15 @@
         <v>0</v>
       </c>
       <c r="Y25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z25" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="3">
         <v>557</v>
@@ -4265,15 +4265,15 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -4345,15 +4345,15 @@
         <v>0</v>
       </c>
       <c r="Y27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z27" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -4425,15 +4425,15 @@
         <v>0</v>
       </c>
       <c r="Y28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z28" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -4505,15 +4505,15 @@
         <v>0</v>
       </c>
       <c r="Y29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z29" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -4585,15 +4585,15 @@
         <v>0</v>
       </c>
       <c r="Y30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z30" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -4665,15 +4665,15 @@
         <v>38</v>
       </c>
       <c r="Y31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z31" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -4745,15 +4745,15 @@
         <v>0</v>
       </c>
       <c r="Y32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z32" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -4825,15 +4825,15 @@
         <v>0</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
@@ -4905,15 +4905,15 @@
         <v>0</v>
       </c>
       <c r="Y34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z34" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -4985,15 +4985,15 @@
         <v>0</v>
       </c>
       <c r="Y35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z35" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="Z35" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" s="3">
         <v>0</v>
@@ -5065,15 +5065,15 @@
         <v>0</v>
       </c>
       <c r="Y36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z36" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="Z36" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -5145,15 +5145,15 @@
         <v>0</v>
       </c>
       <c r="Y37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z37" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="Z37" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
@@ -5225,15 +5225,15 @@
         <v>0</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -5305,15 +5305,15 @@
         <v>0</v>
       </c>
       <c r="Y39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z39" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="Z39" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
@@ -5385,15 +5385,15 @@
         <v>0</v>
       </c>
       <c r="Y40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z40" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="Z40" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B41" s="3">
         <v>0</v>
@@ -5465,15 +5465,15 @@
         <v>0</v>
       </c>
       <c r="Y41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z41" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="Z41" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -5545,15 +5545,15 @@
         <v>3</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -5625,15 +5625,15 @@
         <v>2060</v>
       </c>
       <c r="Y43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z43" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="Z43" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -5705,15 +5705,15 @@
         <v>0</v>
       </c>
       <c r="Y44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z44" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="Z44" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B45" s="3">
         <v>334</v>
@@ -5785,15 +5785,15 @@
         <v>160</v>
       </c>
       <c r="Y45" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z45" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="Z45" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B46" s="3">
         <v>0</v>
@@ -5865,15 +5865,15 @@
         <v>0</v>
       </c>
       <c r="Y46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z46" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="Z46" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B47" s="3">
         <v>0</v>
@@ -5945,15 +5945,15 @@
         <v>0</v>
       </c>
       <c r="Y47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z47" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="Z47" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B48" s="3">
         <v>0</v>
@@ -6025,15 +6025,15 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z48" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="Z48" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B49" s="3">
         <v>0</v>
@@ -6105,15 +6105,15 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -6185,15 +6185,15 @@
         <v>0</v>
       </c>
       <c r="Y50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z50" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="Z50" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B51" s="3">
         <v>0</v>
@@ -6265,15 +6265,15 @@
         <v>148</v>
       </c>
       <c r="Y51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z51" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="Z51" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
@@ -6345,15 +6345,15 @@
         <v>5</v>
       </c>
       <c r="Y52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z52" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="Z52" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B53" s="3">
         <v>0</v>
@@ -6425,15 +6425,15 @@
         <v>0</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B54" s="3">
         <v>0</v>
@@ -6505,15 +6505,15 @@
         <v>0</v>
       </c>
       <c r="Y54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z54" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="Z54" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -6585,15 +6585,15 @@
         <v>0</v>
       </c>
       <c r="Y55" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z55" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
@@ -6665,15 +6665,15 @@
         <v>0</v>
       </c>
       <c r="Y56" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z56" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="Z56" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -6745,15 +6745,15 @@
         <v>0</v>
       </c>
       <c r="Y57" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z57" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="Z57" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -6825,15 +6825,15 @@
         <v>0</v>
       </c>
       <c r="Y58" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z58" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="Z58" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -6905,15 +6905,15 @@
         <v>0</v>
       </c>
       <c r="Y59" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z59" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="Z59" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -6985,15 +6985,15 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z60" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="Z60" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -7065,15 +7065,15 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z61" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="Z61" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -7145,15 +7145,15 @@
         <v>0</v>
       </c>
       <c r="Y62" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z62" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="Z62" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
@@ -7225,15 +7225,15 @@
         <v>0</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -7305,15 +7305,15 @@
         <v>2</v>
       </c>
       <c r="Y64" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z64" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="Z64" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -7385,15 +7385,15 @@
         <v>0</v>
       </c>
       <c r="Y65" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -7465,15 +7465,15 @@
         <v>0</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B67" s="3">
         <v>0</v>
@@ -7545,15 +7545,15 @@
         <v>0</v>
       </c>
       <c r="Y67" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z67" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="Z67" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B68" s="3">
         <v>335</v>
@@ -7625,15 +7625,15 @@
         <v>0</v>
       </c>
       <c r="Y68" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z68" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -7705,15 +7705,15 @@
         <v>0</v>
       </c>
       <c r="Y69" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z69" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="Z69" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -7785,15 +7785,15 @@
         <v>0</v>
       </c>
       <c r="Y70" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z70" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="Z70" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B71" s="3">
         <v>0</v>
@@ -7865,15 +7865,15 @@
         <v>212</v>
       </c>
       <c r="Y71" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z71" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="Z71" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B72" s="3">
         <v>0</v>
@@ -7945,15 +7945,15 @@
         <v>0</v>
       </c>
       <c r="Y72" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z72" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="Z72" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B73" s="3">
         <v>0</v>
@@ -8025,15 +8025,15 @@
         <v>0</v>
       </c>
       <c r="Y73" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B74" s="3">
         <v>0</v>
@@ -8105,15 +8105,15 @@
         <v>0</v>
       </c>
       <c r="Y74" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Z74" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B75" s="3">
         <v>0</v>
@@ -8185,15 +8185,15 @@
         <v>0</v>
       </c>
       <c r="Y75" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Z75" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B76" s="3">
         <v>0</v>
@@ -8265,15 +8265,15 @@
         <v>0</v>
       </c>
       <c r="Y76" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z76" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="Z76" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B77" s="3">
         <v>0</v>
@@ -8345,15 +8345,15 @@
         <v>0</v>
       </c>
       <c r="Y77" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z77" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B78" s="3">
         <v>0</v>
@@ -8425,15 +8425,15 @@
         <v>2</v>
       </c>
       <c r="Y78" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B79" s="3">
         <v>0</v>
@@ -8505,15 +8505,15 @@
         <v>0</v>
       </c>
       <c r="Y79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z79" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="Z79" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
@@ -8585,15 +8585,15 @@
         <v>0</v>
       </c>
       <c r="Y80" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z80" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="Z80" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B81" s="3">
         <v>0</v>
@@ -8665,15 +8665,15 @@
         <v>0</v>
       </c>
       <c r="Y81" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z81" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="Z81" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B82" s="3">
         <v>0</v>
@@ -8745,15 +8745,15 @@
         <v>0</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B83" s="3">
         <v>0</v>
@@ -8825,15 +8825,15 @@
         <v>0</v>
       </c>
       <c r="Y83" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z83" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="Z83" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B84" s="3">
         <v>0</v>
@@ -8905,15 +8905,15 @@
         <v>0</v>
       </c>
       <c r="Y84" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z84" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="Z84" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B85" s="3">
         <v>0</v>
@@ -8985,15 +8985,15 @@
         <v>0</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B86" s="3">
         <v>0</v>
@@ -9065,15 +9065,15 @@
         <v>0</v>
       </c>
       <c r="Y86" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z86" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="Z86" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B87" s="3">
         <v>0</v>
@@ -9145,15 +9145,15 @@
         <v>0</v>
       </c>
       <c r="Y87" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z87" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="Z87" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B88" s="3">
         <v>0</v>
@@ -9225,15 +9225,15 @@
         <v>0</v>
       </c>
       <c r="Y88" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z88" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="Z88" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B89" s="3">
         <v>0</v>
@@ -9305,15 +9305,15 @@
         <v>0</v>
       </c>
       <c r="Y89" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z89" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="Z89" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B90" s="3">
         <v>0</v>
@@ -9385,15 +9385,15 @@
         <v>0</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B91" s="3">
         <v>0</v>
@@ -9465,15 +9465,15 @@
         <v>0</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B92" s="3">
         <v>0</v>
@@ -9545,15 +9545,15 @@
         <v>0</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B93" s="3">
         <v>0</v>
@@ -9625,15 +9625,15 @@
         <v>0</v>
       </c>
       <c r="Y93" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z93" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="Z93" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="94" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B94" s="3">
         <v>0</v>
@@ -9705,15 +9705,15 @@
         <v>0</v>
       </c>
       <c r="Y94" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z94" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="Z94" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B95" s="3">
         <v>0</v>
@@ -9785,15 +9785,15 @@
         <v>0</v>
       </c>
       <c r="Y95" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z95" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="Z95" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B96" s="3">
         <v>0</v>
@@ -9865,15 +9865,15 @@
         <v>0</v>
       </c>
       <c r="Y96" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z96" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="Z96" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B97" s="3">
         <v>0</v>
@@ -9945,15 +9945,15 @@
         <v>1</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B98" s="3">
         <v>0</v>
@@ -10025,15 +10025,15 @@
         <v>144</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Z98" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B99" s="3">
         <v>0</v>
@@ -10105,15 +10105,15 @@
         <v>0</v>
       </c>
       <c r="Y99" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z99" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="Z99" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="100" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B100" s="3">
         <v>0</v>
@@ -10185,15 +10185,15 @@
         <v>0</v>
       </c>
       <c r="Y100" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z100" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="Z100" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B101" s="3">
         <v>0</v>
@@ -10265,15 +10265,15 @@
         <v>0</v>
       </c>
       <c r="Y101" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z101" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="Z101" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="102" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B102" s="3">
         <v>0</v>
@@ -10345,15 +10345,15 @@
         <v>0</v>
       </c>
       <c r="Y102" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z102" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="Z102" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B103" s="3">
         <v>0</v>
@@ -10425,15 +10425,15 @@
         <v>0</v>
       </c>
       <c r="Y103" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z103" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="Z103" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B104" s="3">
         <v>0</v>
@@ -10505,15 +10505,15 @@
         <v>0</v>
       </c>
       <c r="Y104" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z104" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="Z104" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B105" s="3">
         <v>0</v>
@@ -10585,15 +10585,15 @@
         <v>1</v>
       </c>
       <c r="Y105" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z105" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="Z105" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="106" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B106" s="3">
         <v>0</v>
@@ -10665,15 +10665,15 @@
         <v>0</v>
       </c>
       <c r="Y106" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z106" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B107" s="3">
         <v>0</v>
@@ -10745,15 +10745,15 @@
         <v>0</v>
       </c>
       <c r="Y107" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z107" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="Z107" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B108" s="3">
         <v>0</v>
@@ -10825,15 +10825,15 @@
         <v>1</v>
       </c>
       <c r="Y108" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z108" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="Z108" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="109" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B109" s="3">
         <v>0</v>
@@ -10905,15 +10905,15 @@
         <v>1</v>
       </c>
       <c r="Y109" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z109" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="Z109" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B110" s="3">
         <v>0</v>
@@ -10985,15 +10985,15 @@
         <v>0</v>
       </c>
       <c r="Y110" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Z110" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="111" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B111" s="3">
         <v>0</v>
@@ -11065,15 +11065,15 @@
         <v>0</v>
       </c>
       <c r="Y111" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z111" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="Z111" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="112" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B112" s="3">
         <v>0</v>
@@ -11145,15 +11145,15 @@
         <v>0</v>
       </c>
       <c r="Y112" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z112" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="Z112" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="113" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B113" s="3">
         <v>0</v>
@@ -11225,15 +11225,15 @@
         <v>0</v>
       </c>
       <c r="Y113" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Z113" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B114" s="3">
         <v>0</v>
@@ -11305,15 +11305,15 @@
         <v>0</v>
       </c>
       <c r="Y114" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z114" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B115" s="3">
         <v>0</v>
@@ -11385,15 +11385,15 @@
         <v>0</v>
       </c>
       <c r="Y115" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z115" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="Z115" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="116" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B116" s="3">
         <v>0</v>
@@ -11465,15 +11465,15 @@
         <v>0</v>
       </c>
       <c r="Y116" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z116" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="Z116" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="117" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B117" s="3">
         <v>0</v>
@@ -11545,15 +11545,15 @@
         <v>0</v>
       </c>
       <c r="Y117" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z117" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="Z117" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="118" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B118" s="3">
         <v>0</v>
@@ -11625,15 +11625,15 @@
         <v>1</v>
       </c>
       <c r="Y118" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z118" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="Z118" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="119" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B119" s="3">
         <v>0</v>
@@ -11705,15 +11705,15 @@
         <v>0</v>
       </c>
       <c r="Y119" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Z119" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="120" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B120" s="3">
         <v>0</v>
@@ -11785,15 +11785,15 @@
         <v>136</v>
       </c>
       <c r="Y120" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z120" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="Z120" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="121" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B121" s="3">
         <v>0</v>
@@ -11865,15 +11865,15 @@
         <v>0</v>
       </c>
       <c r="Y121" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z121" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="Z121" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="122" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B122" s="3">
         <v>0</v>
@@ -11945,15 +11945,15 @@
         <v>0</v>
       </c>
       <c r="Y122" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Z122" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B123" s="3">
         <v>0</v>
@@ -12025,15 +12025,15 @@
         <v>0</v>
       </c>
       <c r="Y123" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Z123" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B124" s="3">
         <v>0</v>
@@ -12105,15 +12105,15 @@
         <v>95</v>
       </c>
       <c r="Y124" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z124" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="Z124" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="125" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B125" s="3">
         <v>0</v>
@@ -12185,15 +12185,15 @@
         <v>0</v>
       </c>
       <c r="Y125" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z125" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="Z125" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="126" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B126" s="3">
         <v>0</v>
@@ -12265,15 +12265,15 @@
         <v>281</v>
       </c>
       <c r="Y126" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Z126" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="127" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B127" s="3">
         <v>0</v>
@@ -12345,15 +12345,15 @@
         <v>335</v>
       </c>
       <c r="Y127" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z127" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="Z127" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="128" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B128" s="3">
         <v>0</v>
@@ -12425,15 +12425,15 @@
         <v>0</v>
       </c>
       <c r="Y128" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z128" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="Z128" s="1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="129" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B129" s="3">
         <v>0</v>
@@ -12505,15 +12505,15 @@
         <v>0</v>
       </c>
       <c r="Y129" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Z129" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B130" s="3">
         <v>0</v>
@@ -12585,15 +12585,15 @@
         <v>315</v>
       </c>
       <c r="Y130" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z130" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="Z130" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="131" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B131" s="3">
         <v>0</v>
@@ -12665,15 +12665,15 @@
         <v>0</v>
       </c>
       <c r="Y131" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Z131" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="132" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B132" s="3">
         <v>0</v>
@@ -12745,15 +12745,15 @@
         <v>0</v>
       </c>
       <c r="Y132" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Z132" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B133" s="3">
         <v>0</v>
@@ -12825,15 +12825,15 @@
         <v>0</v>
       </c>
       <c r="Y133" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z133" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="Z133" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="134" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B134" s="3">
         <v>0</v>
@@ -12905,15 +12905,15 @@
         <v>0</v>
       </c>
       <c r="Y134" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z134" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="Z134" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="135" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B135" s="3">
         <v>0</v>
@@ -12985,15 +12985,15 @@
         <v>0</v>
       </c>
       <c r="Y135" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z135" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B136" s="3">
         <v>0</v>
@@ -13065,15 +13065,15 @@
         <v>0</v>
       </c>
       <c r="Y136" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z136" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="Z136" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="137" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B137" s="3">
         <v>0</v>
@@ -13145,15 +13145,15 @@
         <v>287</v>
       </c>
       <c r="Y137" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z137" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B138" s="3">
         <v>0</v>
@@ -13225,15 +13225,15 @@
         <v>7</v>
       </c>
       <c r="Y138" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z138" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B139" s="3">
         <v>0</v>
@@ -13305,15 +13305,15 @@
         <v>0</v>
       </c>
       <c r="Y139" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Z139" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B140" s="3">
         <v>0</v>
@@ -13385,15 +13385,15 @@
         <v>0</v>
       </c>
       <c r="Y140" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z140" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="Z140" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="141" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B141" s="3">
         <v>0</v>
@@ -13465,15 +13465,15 @@
         <v>10</v>
       </c>
       <c r="Y141" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Z141" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="142" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B142" s="3">
         <v>0</v>
@@ -13545,15 +13545,15 @@
         <v>0</v>
       </c>
       <c r="Y142" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Z142" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="143" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B143" s="3">
         <v>1</v>
@@ -13625,15 +13625,15 @@
         <v>0</v>
       </c>
       <c r="Y143" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z143" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="Z143" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="144" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B144" s="3">
         <v>0</v>
@@ -13705,15 +13705,15 @@
         <v>0</v>
       </c>
       <c r="Y144" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z144" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="145" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B145" s="3">
         <v>0</v>
@@ -13785,15 +13785,15 @@
         <v>81</v>
       </c>
       <c r="Y145" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z145" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="Z145" s="1" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="146" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B146" s="3">
         <v>0</v>
@@ -13865,15 +13865,15 @@
         <v>0</v>
       </c>
       <c r="Y146" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Z146" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B147" s="3">
         <v>0</v>
@@ -13945,15 +13945,15 @@
         <v>0</v>
       </c>
       <c r="Y147" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z147" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="Z147" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="148" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B148" s="3">
         <v>0</v>
@@ -14025,15 +14025,15 @@
         <v>0</v>
       </c>
       <c r="Y148" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z148" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="Z148" s="1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="149" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B149" s="3">
         <v>0</v>
@@ -14105,15 +14105,15 @@
         <v>219</v>
       </c>
       <c r="Y149" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z149" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="Z149" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="150" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B150" s="3">
         <v>220</v>
@@ -14185,15 +14185,15 @@
         <v>0</v>
       </c>
       <c r="Y150" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="Z150" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="Z150" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="151" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B151" s="3">
         <v>0</v>
@@ -14265,15 +14265,15 @@
         <v>0</v>
       </c>
       <c r="Y151" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Z151" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B152" s="3">
         <v>0</v>
@@ -14345,15 +14345,15 @@
         <v>227</v>
       </c>
       <c r="Y152" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Z152" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="153" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B153" s="3">
         <v>0</v>
@@ -14425,15 +14425,15 @@
         <v>0</v>
       </c>
       <c r="Y153" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z153" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="Z153" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="154" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B154" s="3">
         <v>0</v>
@@ -14505,15 +14505,15 @@
         <v>0</v>
       </c>
       <c r="Y154" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Z154" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="155" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B155" s="3">
         <v>0</v>
@@ -14585,15 +14585,15 @@
         <v>0</v>
       </c>
       <c r="Y155" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z155" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="Z155" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="156" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B156" s="3">
         <v>0</v>
@@ -14665,15 +14665,15 @@
         <v>0</v>
       </c>
       <c r="Y156" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z156" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="Z156" s="1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="157" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B157" s="3">
         <v>0</v>
@@ -14745,15 +14745,15 @@
         <v>3</v>
       </c>
       <c r="Y157" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Z157" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B158" s="3">
         <v>0</v>
@@ -14825,15 +14825,15 @@
         <v>0</v>
       </c>
       <c r="Y158" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Z158" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="159" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B159" s="3">
         <v>0</v>
@@ -14905,15 +14905,15 @@
         <v>0</v>
       </c>
       <c r="Y159" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Z159" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="160" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B160" s="3">
         <v>0</v>
@@ -14985,15 +14985,15 @@
         <v>0</v>
       </c>
       <c r="Y160" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Z160" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B161" s="3">
         <v>0</v>
@@ -15065,15 +15065,15 @@
         <v>0</v>
       </c>
       <c r="Y161" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Z161" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="162" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B162" s="3">
         <v>0</v>
@@ -15145,15 +15145,15 @@
         <v>0</v>
       </c>
       <c r="Y162" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z162" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="Z162" s="1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="163" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B163" s="3">
         <v>313</v>
@@ -15225,15 +15225,15 @@
         <v>0</v>
       </c>
       <c r="Y163" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z163" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="164" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B164" s="3">
         <v>0</v>
@@ -15305,15 +15305,15 @@
         <v>2</v>
       </c>
       <c r="Y164" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z164" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="Z164" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="165" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B165" s="3">
         <v>0</v>
@@ -15385,15 +15385,15 @@
         <v>0</v>
       </c>
       <c r="Y165" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z165" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="Z165" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="166" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B166" s="3">
         <v>0</v>
@@ -15465,15 +15465,15 @@
         <v>0</v>
       </c>
       <c r="Y166" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Z166" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="167" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B167" s="3">
         <v>0</v>
@@ -15545,15 +15545,15 @@
         <v>0</v>
       </c>
       <c r="Y167" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Z167" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="168" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B168" s="3">
         <v>0</v>
@@ -15625,15 +15625,15 @@
         <v>0</v>
       </c>
       <c r="Y168" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Z168" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="Z168" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="169" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B169" s="3">
         <v>0</v>
@@ -15705,15 +15705,15 @@
         <v>1</v>
       </c>
       <c r="Y169" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z169" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B170" s="3">
         <v>0</v>
@@ -15785,15 +15785,15 @@
         <v>0</v>
       </c>
       <c r="Y170" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="Z170" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="Z170" s="1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="171" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B171" s="3">
         <v>0</v>
@@ -15865,15 +15865,15 @@
         <v>0</v>
       </c>
       <c r="Y171" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Z171" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="172" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B172" s="3">
         <v>0</v>
@@ -15945,15 +15945,15 @@
         <v>0</v>
       </c>
       <c r="Y172" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z172" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="Z172" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="173" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B173" s="3">
         <v>0</v>
@@ -16025,15 +16025,15 @@
         <v>0</v>
       </c>
       <c r="Y173" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Z173" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="174" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B174" s="3">
         <v>0</v>
@@ -16105,15 +16105,15 @@
         <v>0</v>
       </c>
       <c r="Y174" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Z174" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B175" s="3">
         <v>0</v>
@@ -16185,15 +16185,15 @@
         <v>0</v>
       </c>
       <c r="Y175" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z175" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="Z175" s="1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="176" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B176" s="3">
         <v>0</v>
@@ -16265,15 +16265,15 @@
         <v>0</v>
       </c>
       <c r="Y176" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z176" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="Z176" s="1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="177" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B177" s="3">
         <v>0</v>
@@ -16345,15 +16345,15 @@
         <v>0</v>
       </c>
       <c r="Y177" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="Z177" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="Z177" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="178" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B178" s="3">
         <v>0</v>
@@ -16425,15 +16425,15 @@
         <v>0</v>
       </c>
       <c r="Y178" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z178" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="179" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B179" s="3">
         <v>0</v>
@@ -16505,15 +16505,15 @@
         <v>18</v>
       </c>
       <c r="Y179" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Z179" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="180" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B180" s="3">
         <v>0</v>
@@ -16585,15 +16585,15 @@
         <v>0</v>
       </c>
       <c r="Y180" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z180" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="Z180" s="1" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="181" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B181" s="3">
         <v>0</v>
@@ -16665,15 +16665,15 @@
         <v>0</v>
       </c>
       <c r="Y181" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z181" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="Z181" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="182" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B182" s="3">
         <v>0</v>
@@ -16745,15 +16745,15 @@
         <v>0</v>
       </c>
       <c r="Y182" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z182" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="Z182" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="183" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B183" s="3">
         <v>0</v>
@@ -16825,15 +16825,15 @@
         <v>12</v>
       </c>
       <c r="Y183" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Z183" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="184" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B184" s="3">
         <v>0</v>
@@ -16905,15 +16905,15 @@
         <v>0</v>
       </c>
       <c r="Y184" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z184" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="Z184" s="1" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="185" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B185" s="3">
         <v>0</v>
@@ -16985,15 +16985,15 @@
         <v>177</v>
       </c>
       <c r="Y185" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z185" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="Z185" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="186" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B186" s="3">
         <v>0</v>
@@ -17065,15 +17065,15 @@
         <v>0</v>
       </c>
       <c r="Y186" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Z186" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="187" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B187" s="3">
         <v>1</v>
@@ -17145,15 +17145,15 @@
         <v>0</v>
       </c>
       <c r="Y187" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z187" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="Z187" s="1" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="188" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B188" s="3">
         <v>0</v>
@@ -17225,15 +17225,15 @@
         <v>0</v>
       </c>
       <c r="Y188" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z188" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="Z188" s="1" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="189" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B189" s="3">
         <v>0</v>
@@ -17305,15 +17305,15 @@
         <v>0</v>
       </c>
       <c r="Y189" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z189" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="Z189" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="190" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B190" s="3">
         <v>0</v>
@@ -17385,15 +17385,15 @@
         <v>0</v>
       </c>
       <c r="Y190" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="Z190" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="Z190" s="1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="191" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B191" s="3">
         <v>304</v>
@@ -17465,15 +17465,15 @@
         <v>0</v>
       </c>
       <c r="Y191" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z191" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="Z191" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="192" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B192" s="3">
         <v>0</v>
@@ -17545,15 +17545,15 @@
         <v>0</v>
       </c>
       <c r="Y192" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Z192" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="193" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B193" s="3">
         <v>0</v>
@@ -17625,15 +17625,15 @@
         <v>0</v>
       </c>
       <c r="Y193" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Z193" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B194" s="3">
         <v>0</v>
@@ -17705,15 +17705,15 @@
         <v>0</v>
       </c>
       <c r="Y194" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Z194" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="195" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B195" s="3">
         <v>0</v>
@@ -17785,15 +17785,15 @@
         <v>0</v>
       </c>
       <c r="Y195" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z195" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="196" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B196" s="3">
         <v>0</v>
@@ -17865,15 +17865,15 @@
         <v>0</v>
       </c>
       <c r="Y196" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Z196" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="197" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B197" s="3">
         <v>0</v>
@@ -17945,15 +17945,15 @@
         <v>0</v>
       </c>
       <c r="Y197" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z197" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="Z197" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="198" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B198" s="3">
         <v>0</v>
@@ -18025,15 +18025,15 @@
         <v>0</v>
       </c>
       <c r="Y198" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="Z198" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="Z198" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="199" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B199" s="3">
         <v>0</v>
@@ -18105,15 +18105,15 @@
         <v>618</v>
       </c>
       <c r="Y199" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z199" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="Z199" s="1" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="200" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B200" s="3">
         <v>0</v>
@@ -18185,15 +18185,15 @@
         <v>0</v>
       </c>
       <c r="Y200" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Z200" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="201" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B201" s="3">
         <v>0</v>
@@ -18265,15 +18265,15 @@
         <v>0</v>
       </c>
       <c r="Y201" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z201" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="202" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B202" s="3">
         <v>0</v>
@@ -18345,15 +18345,15 @@
         <v>0</v>
       </c>
       <c r="Y202" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z202" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="Z202" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="203" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B203" s="3">
         <v>0</v>
@@ -18425,15 +18425,15 @@
         <v>0</v>
       </c>
       <c r="Y203" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="Z203" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="Z203" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="204" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B204" s="3">
         <v>0</v>
@@ -18505,15 +18505,15 @@
         <v>0</v>
       </c>
       <c r="Y204" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Z204" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="205" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B205" s="3">
         <v>0</v>
@@ -18585,15 +18585,15 @@
         <v>0</v>
       </c>
       <c r="Y205" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z205" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="Z205" s="1" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="206" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B206" s="3">
         <v>0</v>
@@ -18665,15 +18665,15 @@
         <v>0</v>
       </c>
       <c r="Y206" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z206" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="207" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B207" s="3">
         <v>0</v>
@@ -18745,15 +18745,15 @@
         <v>0</v>
       </c>
       <c r="Y207" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z207" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="208" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B208" s="3">
         <v>0</v>
@@ -18825,15 +18825,15 @@
         <v>0</v>
       </c>
       <c r="Y208" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="Z208" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="Z208" s="1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="209" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B209" s="3">
         <v>0</v>
@@ -18905,15 +18905,15 @@
         <v>1</v>
       </c>
       <c r="Y209" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z209" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="Z209" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="210" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B210" s="3">
         <v>0</v>
@@ -18985,15 +18985,15 @@
         <v>0</v>
       </c>
       <c r="Y210" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z210" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="Z210" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="211" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B211" s="3">
         <v>0</v>
@@ -19065,15 +19065,15 @@
         <v>0</v>
       </c>
       <c r="Y211" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z211" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="Z211" s="1" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="212" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B212" s="3">
         <v>0</v>
@@ -19145,15 +19145,15 @@
         <v>0</v>
       </c>
       <c r="Y212" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="Z212" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="Z212" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="213" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B213" s="3">
         <v>0</v>
@@ -19225,15 +19225,15 @@
         <v>0</v>
       </c>
       <c r="Y213" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="Z213" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="Z213" s="1" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="214" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B214" s="3">
         <v>0</v>
@@ -19305,15 +19305,15 @@
         <v>0</v>
       </c>
       <c r="Y214" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z214" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="215" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B215" s="3">
         <v>1</v>
@@ -19385,15 +19385,15 @@
         <v>0</v>
       </c>
       <c r="Y215" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z215" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="216" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B216" s="3">
         <v>0</v>
@@ -19465,15 +19465,15 @@
         <v>0</v>
       </c>
       <c r="Y216" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z216" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="Z216" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="217" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B217" s="3">
         <v>0</v>
@@ -19545,15 +19545,15 @@
         <v>0</v>
       </c>
       <c r="Y217" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Z217" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="218" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B218" s="3">
         <v>0</v>
@@ -19625,15 +19625,15 @@
         <v>0</v>
       </c>
       <c r="Y218" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Z218" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="219" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B219" s="3">
         <v>0</v>
@@ -19705,15 +19705,15 @@
         <v>1</v>
       </c>
       <c r="Y219" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z219" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="Z219" s="1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="220" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B220" s="3">
         <v>0</v>
@@ -19785,15 +19785,15 @@
         <v>0</v>
       </c>
       <c r="Y220" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Z220" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="221" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B221" s="3">
         <v>0</v>
@@ -19865,15 +19865,15 @@
         <v>0</v>
       </c>
       <c r="Y221" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="Z221" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="Z221" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="222" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B222" s="3">
         <v>0</v>
@@ -19945,15 +19945,15 @@
         <v>0</v>
       </c>
       <c r="Y222" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Z222" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="223" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B223" s="3">
         <v>0</v>
@@ -20025,15 +20025,15 @@
         <v>1</v>
       </c>
       <c r="Y223" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z223" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="Z223" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="224" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B224" s="3">
         <v>0</v>
@@ -20105,15 +20105,15 @@
         <v>0</v>
       </c>
       <c r="Y224" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z224" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="Z224" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="225" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B225" s="3">
         <v>0</v>
@@ -20185,15 +20185,15 @@
         <v>0</v>
       </c>
       <c r="Y225" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="Z225" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="226" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B226" s="3">
         <v>0</v>
@@ -20265,15 +20265,15 @@
         <v>0</v>
       </c>
       <c r="Y226" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Z226" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="227" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B227" s="3">
         <v>0</v>
@@ -20345,15 +20345,15 @@
         <v>0</v>
       </c>
       <c r="Y227" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="Z227" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="Z227" s="1" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="228" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B228" s="3">
         <v>0</v>
@@ -20425,15 +20425,15 @@
         <v>0</v>
       </c>
       <c r="Y228" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Z228" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="229" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B229" s="3">
         <v>0</v>
@@ -20505,15 +20505,15 @@
         <v>31</v>
       </c>
       <c r="Y229" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z229" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="Z229" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="230" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B230" s="3">
         <v>0</v>
@@ -20585,15 +20585,15 @@
         <v>0</v>
       </c>
       <c r="Y230" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Z230" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="231" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B231" s="3">
         <v>0</v>
@@ -20665,15 +20665,15 @@
         <v>0</v>
       </c>
       <c r="Y231" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z231" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="Z231" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="232" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B232" s="3">
         <v>367</v>
@@ -20745,15 +20745,15 @@
         <v>0</v>
       </c>
       <c r="Y232" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Z232" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="233" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B233" s="3">
         <v>372</v>
@@ -20825,15 +20825,15 @@
         <v>0</v>
       </c>
       <c r="Y233" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="Z233" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="Z233" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="234" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B234" s="3">
         <v>0</v>
@@ -20905,15 +20905,15 @@
         <v>370</v>
       </c>
       <c r="Y234" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="Z234" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="Z234" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="235" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B235" s="3">
         <v>0</v>
@@ -20985,15 +20985,15 @@
         <v>0</v>
       </c>
       <c r="Y235" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Z235" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="236" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B236" s="3">
         <v>0</v>
@@ -21065,15 +21065,15 @@
         <v>0</v>
       </c>
       <c r="Y236" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="Z236" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="237" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B237" s="3">
         <v>0</v>
@@ -21145,15 +21145,15 @@
         <v>0</v>
       </c>
       <c r="Y237" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Z237" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="238" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B238" s="3">
         <v>0</v>
@@ -21225,15 +21225,15 @@
         <v>0</v>
       </c>
       <c r="Y238" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Z238" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="239" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B239" s="3">
         <v>0</v>
@@ -21305,15 +21305,15 @@
         <v>0</v>
       </c>
       <c r="Y239" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Z239" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="240" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B240" s="3">
         <v>0</v>
@@ -21385,15 +21385,15 @@
         <v>0</v>
       </c>
       <c r="Y240" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Z240" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="241" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B241" s="3">
         <v>0</v>
@@ -21465,15 +21465,15 @@
         <v>0</v>
       </c>
       <c r="Y241" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z241" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="242" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B242" s="3">
         <v>0</v>
@@ -21545,15 +21545,15 @@
         <v>0</v>
       </c>
       <c r="Y242" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Z242" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="243" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B243" s="3">
         <v>0</v>
@@ -21625,15 +21625,15 @@
         <v>0</v>
       </c>
       <c r="Y243" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="Z243" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="244" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B244" s="3">
         <v>0</v>
@@ -21705,15 +21705,15 @@
         <v>0</v>
       </c>
       <c r="Y244" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="Z244" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="Z244" s="1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="245" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B245" s="3">
         <v>0</v>
@@ -21785,15 +21785,15 @@
         <v>0</v>
       </c>
       <c r="Y245" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="Z245" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="Z245" s="1" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="246" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B246" s="3">
         <v>0</v>
@@ -21865,15 +21865,15 @@
         <v>0</v>
       </c>
       <c r="Y246" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="Z246" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="Z246" s="1" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="247" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B247" s="3">
         <v>0</v>
@@ -21945,15 +21945,15 @@
         <v>0</v>
       </c>
       <c r="Y247" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="Z247" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="Z247" s="1" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="248" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B248" s="3">
         <v>0</v>
@@ -22025,15 +22025,15 @@
         <v>0</v>
       </c>
       <c r="Y248" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Z248" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="249" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B249" s="3">
         <v>0</v>
@@ -22105,15 +22105,15 @@
         <v>0</v>
       </c>
       <c r="Y249" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="Z249" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="Z249" s="1" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="250" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B250" s="3">
         <v>0</v>
@@ -22185,15 +22185,15 @@
         <v>0</v>
       </c>
       <c r="Y250" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="Z250" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="251" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B251" s="3">
         <v>0</v>
@@ -22265,15 +22265,15 @@
         <v>0</v>
       </c>
       <c r="Y251" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Z251" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="252" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B252" s="3">
         <v>0</v>
@@ -22345,15 +22345,15 @@
         <v>0</v>
       </c>
       <c r="Y252" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z252" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="Z252" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="253" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B253" s="3">
         <v>0</v>
@@ -22425,15 +22425,15 @@
         <v>0</v>
       </c>
       <c r="Y253" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="Z253" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="Z253" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="254" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B254" s="3">
         <v>0</v>
@@ -22505,15 +22505,15 @@
         <v>0</v>
       </c>
       <c r="Y254" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Z254" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="255" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B255" s="3">
         <v>0</v>
@@ -22585,15 +22585,15 @@
         <v>0</v>
       </c>
       <c r="Y255" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z255" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="Z255" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="256" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B256" s="3">
         <v>0</v>
@@ -22665,10 +22665,10 @@
         <v>0</v>
       </c>
       <c r="Y256" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z256" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="Z256" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/latest/analysis_data/from_pema/processing_batch1/taxonomic_assignments/Extended_final_table_July2019_ITS_noBlank.xlsx
+++ b/latest/analysis_data/from_pema/processing_batch1/taxonomic_assignments/Extended_final_table_July2019_ITS_noBlank.xlsx
@@ -84,9 +84,6 @@
     <t>ARMS_Koster_VH2_20180418_20180906_MF500_ETOH</t>
   </si>
   <si>
-    <t>ARMS_Koster_VH2_20180418_20180906_SED100_ETOH</t>
-  </si>
-  <si>
     <t>Classification</t>
   </si>
   <si>
@@ -1912,6 +1909,9 @@
   </si>
   <si>
     <t>ARMS_BelgiumCoast_AZFPin_20180712_20180818_MF500_ETOH</t>
+  </si>
+  <si>
+    <t>ARMS_Koster_VH2_20180418_20180906_SED100_DMSO</t>
   </si>
 </sst>
 </file>
@@ -2186,7 +2186,7 @@
   <dimension ref="A1:Z256"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2205,7 +2205,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -2241,7 +2241,7 @@
         <v>14</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>15</v>
@@ -2262,18 +2262,18 @@
         <v>20</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3">
         <v>100</v>
@@ -2345,15 +2345,15 @@
         <v>0</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -2425,15 +2425,15 @@
         <v>101</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -2505,15 +2505,15 @@
         <v>242</v>
       </c>
       <c r="Y4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2585,15 +2585,15 @@
         <v>0</v>
       </c>
       <c r="Y5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -2665,15 +2665,15 @@
         <v>0</v>
       </c>
       <c r="Y6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -2745,15 +2745,15 @@
         <v>0</v>
       </c>
       <c r="Y7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2825,15 +2825,15 @@
         <v>0</v>
       </c>
       <c r="Y8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -2905,15 +2905,15 @@
         <v>0</v>
       </c>
       <c r="Y9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -2985,15 +2985,15 @@
         <v>0</v>
       </c>
       <c r="Y10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z10" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -3065,15 +3065,15 @@
         <v>0</v>
       </c>
       <c r="Y11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z11" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -3145,15 +3145,15 @@
         <v>0</v>
       </c>
       <c r="Y12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z12" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -3225,15 +3225,15 @@
         <v>0</v>
       </c>
       <c r="Y13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z13" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -3305,15 +3305,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z14" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
@@ -3385,15 +3385,15 @@
         <v>0</v>
       </c>
       <c r="Y15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z15" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -3465,15 +3465,15 @@
         <v>0</v>
       </c>
       <c r="Y16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z16" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -3545,15 +3545,15 @@
         <v>100</v>
       </c>
       <c r="Y17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z17" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -3625,15 +3625,15 @@
         <v>0</v>
       </c>
       <c r="Y18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z18" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -3705,15 +3705,15 @@
         <v>0</v>
       </c>
       <c r="Y19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z19" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -3785,15 +3785,15 @@
         <v>0</v>
       </c>
       <c r="Y20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z20" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -3865,15 +3865,15 @@
         <v>0</v>
       </c>
       <c r="Y21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z21" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -3945,15 +3945,15 @@
         <v>0</v>
       </c>
       <c r="Y22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z22" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -4025,15 +4025,15 @@
         <v>0</v>
       </c>
       <c r="Y23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z23" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -4105,15 +4105,15 @@
         <v>0</v>
       </c>
       <c r="Y24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z24" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -4185,15 +4185,15 @@
         <v>0</v>
       </c>
       <c r="Y25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z25" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="3">
         <v>557</v>
@@ -4265,15 +4265,15 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -4345,15 +4345,15 @@
         <v>0</v>
       </c>
       <c r="Y27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z27" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -4425,15 +4425,15 @@
         <v>0</v>
       </c>
       <c r="Y28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z28" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -4505,15 +4505,15 @@
         <v>0</v>
       </c>
       <c r="Y29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z29" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -4585,15 +4585,15 @@
         <v>0</v>
       </c>
       <c r="Y30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z30" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -4665,15 +4665,15 @@
         <v>38</v>
       </c>
       <c r="Y31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z31" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -4745,15 +4745,15 @@
         <v>0</v>
       </c>
       <c r="Y32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z32" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -4825,15 +4825,15 @@
         <v>0</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
@@ -4905,15 +4905,15 @@
         <v>0</v>
       </c>
       <c r="Y34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z34" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -4985,15 +4985,15 @@
         <v>0</v>
       </c>
       <c r="Y35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z35" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="Z35" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B36" s="3">
         <v>0</v>
@@ -5065,15 +5065,15 @@
         <v>0</v>
       </c>
       <c r="Y36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z36" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="Z36" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -5145,15 +5145,15 @@
         <v>0</v>
       </c>
       <c r="Y37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z37" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="Z37" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
@@ -5225,15 +5225,15 @@
         <v>0</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -5305,15 +5305,15 @@
         <v>0</v>
       </c>
       <c r="Y39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z39" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="Z39" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
@@ -5385,15 +5385,15 @@
         <v>0</v>
       </c>
       <c r="Y40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z40" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="Z40" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B41" s="3">
         <v>0</v>
@@ -5465,15 +5465,15 @@
         <v>0</v>
       </c>
       <c r="Y41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z41" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="Z41" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -5545,15 +5545,15 @@
         <v>3</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -5625,15 +5625,15 @@
         <v>2060</v>
       </c>
       <c r="Y43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z43" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="Z43" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -5705,15 +5705,15 @@
         <v>0</v>
       </c>
       <c r="Y44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z44" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="Z44" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B45" s="3">
         <v>334</v>
@@ -5785,15 +5785,15 @@
         <v>160</v>
       </c>
       <c r="Y45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z45" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="Z45" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B46" s="3">
         <v>0</v>
@@ -5865,15 +5865,15 @@
         <v>0</v>
       </c>
       <c r="Y46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z46" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="Z46" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B47" s="3">
         <v>0</v>
@@ -5945,15 +5945,15 @@
         <v>0</v>
       </c>
       <c r="Y47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z47" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="Z47" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B48" s="3">
         <v>0</v>
@@ -6025,15 +6025,15 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z48" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="Z48" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B49" s="3">
         <v>0</v>
@@ -6105,15 +6105,15 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -6185,15 +6185,15 @@
         <v>0</v>
       </c>
       <c r="Y50" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z50" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="Z50" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B51" s="3">
         <v>0</v>
@@ -6265,15 +6265,15 @@
         <v>148</v>
       </c>
       <c r="Y51" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z51" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="Z51" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
@@ -6345,15 +6345,15 @@
         <v>5</v>
       </c>
       <c r="Y52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z52" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="Z52" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B53" s="3">
         <v>0</v>
@@ -6425,15 +6425,15 @@
         <v>0</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B54" s="3">
         <v>0</v>
@@ -6505,15 +6505,15 @@
         <v>0</v>
       </c>
       <c r="Y54" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z54" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="Z54" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -6585,15 +6585,15 @@
         <v>0</v>
       </c>
       <c r="Y55" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z55" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
@@ -6665,15 +6665,15 @@
         <v>0</v>
       </c>
       <c r="Y56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z56" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="Z56" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -6745,15 +6745,15 @@
         <v>0</v>
       </c>
       <c r="Y57" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z57" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="Z57" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -6825,15 +6825,15 @@
         <v>0</v>
       </c>
       <c r="Y58" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z58" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="Z58" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -6905,15 +6905,15 @@
         <v>0</v>
       </c>
       <c r="Y59" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z59" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="Z59" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -6985,15 +6985,15 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z60" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="Z60" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -7065,15 +7065,15 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z61" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="Z61" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -7145,15 +7145,15 @@
         <v>0</v>
       </c>
       <c r="Y62" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z62" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="Z62" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
@@ -7225,15 +7225,15 @@
         <v>0</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -7305,15 +7305,15 @@
         <v>2</v>
       </c>
       <c r="Y64" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z64" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="Z64" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -7385,15 +7385,15 @@
         <v>0</v>
       </c>
       <c r="Y65" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -7465,15 +7465,15 @@
         <v>0</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B67" s="3">
         <v>0</v>
@@ -7545,15 +7545,15 @@
         <v>0</v>
       </c>
       <c r="Y67" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z67" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="Z67" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B68" s="3">
         <v>335</v>
@@ -7625,15 +7625,15 @@
         <v>0</v>
       </c>
       <c r="Y68" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z68" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -7705,15 +7705,15 @@
         <v>0</v>
       </c>
       <c r="Y69" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z69" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="Z69" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -7785,15 +7785,15 @@
         <v>0</v>
       </c>
       <c r="Y70" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z70" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="Z70" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B71" s="3">
         <v>0</v>
@@ -7865,15 +7865,15 @@
         <v>212</v>
       </c>
       <c r="Y71" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z71" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="Z71" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B72" s="3">
         <v>0</v>
@@ -7945,15 +7945,15 @@
         <v>0</v>
       </c>
       <c r="Y72" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z72" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="Z72" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B73" s="3">
         <v>0</v>
@@ -8025,15 +8025,15 @@
         <v>0</v>
       </c>
       <c r="Y73" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B74" s="3">
         <v>0</v>
@@ -8105,15 +8105,15 @@
         <v>0</v>
       </c>
       <c r="Y74" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z74" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B75" s="3">
         <v>0</v>
@@ -8185,15 +8185,15 @@
         <v>0</v>
       </c>
       <c r="Y75" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Z75" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B76" s="3">
         <v>0</v>
@@ -8265,15 +8265,15 @@
         <v>0</v>
       </c>
       <c r="Y76" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z76" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="Z76" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B77" s="3">
         <v>0</v>
@@ -8345,15 +8345,15 @@
         <v>0</v>
       </c>
       <c r="Y77" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Z77" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B78" s="3">
         <v>0</v>
@@ -8425,15 +8425,15 @@
         <v>2</v>
       </c>
       <c r="Y78" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B79" s="3">
         <v>0</v>
@@ -8505,15 +8505,15 @@
         <v>0</v>
       </c>
       <c r="Y79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z79" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="Z79" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
@@ -8585,15 +8585,15 @@
         <v>0</v>
       </c>
       <c r="Y80" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z80" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="Z80" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B81" s="3">
         <v>0</v>
@@ -8665,15 +8665,15 @@
         <v>0</v>
       </c>
       <c r="Y81" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z81" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="Z81" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B82" s="3">
         <v>0</v>
@@ -8745,15 +8745,15 @@
         <v>0</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B83" s="3">
         <v>0</v>
@@ -8825,15 +8825,15 @@
         <v>0</v>
       </c>
       <c r="Y83" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z83" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="Z83" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B84" s="3">
         <v>0</v>
@@ -8905,15 +8905,15 @@
         <v>0</v>
       </c>
       <c r="Y84" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z84" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="Z84" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B85" s="3">
         <v>0</v>
@@ -8985,15 +8985,15 @@
         <v>0</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B86" s="3">
         <v>0</v>
@@ -9065,15 +9065,15 @@
         <v>0</v>
       </c>
       <c r="Y86" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z86" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="Z86" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B87" s="3">
         <v>0</v>
@@ -9145,15 +9145,15 @@
         <v>0</v>
       </c>
       <c r="Y87" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z87" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="Z87" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B88" s="3">
         <v>0</v>
@@ -9225,15 +9225,15 @@
         <v>0</v>
       </c>
       <c r="Y88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z88" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="Z88" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B89" s="3">
         <v>0</v>
@@ -9305,15 +9305,15 @@
         <v>0</v>
       </c>
       <c r="Y89" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z89" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="Z89" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B90" s="3">
         <v>0</v>
@@ -9385,15 +9385,15 @@
         <v>0</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B91" s="3">
         <v>0</v>
@@ -9465,15 +9465,15 @@
         <v>0</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B92" s="3">
         <v>0</v>
@@ -9545,15 +9545,15 @@
         <v>0</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B93" s="3">
         <v>0</v>
@@ -9625,15 +9625,15 @@
         <v>0</v>
       </c>
       <c r="Y93" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z93" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="Z93" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="94" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B94" s="3">
         <v>0</v>
@@ -9705,15 +9705,15 @@
         <v>0</v>
       </c>
       <c r="Y94" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z94" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="Z94" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B95" s="3">
         <v>0</v>
@@ -9785,15 +9785,15 @@
         <v>0</v>
       </c>
       <c r="Y95" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z95" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="Z95" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B96" s="3">
         <v>0</v>
@@ -9865,15 +9865,15 @@
         <v>0</v>
       </c>
       <c r="Y96" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z96" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="Z96" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B97" s="3">
         <v>0</v>
@@ -9945,15 +9945,15 @@
         <v>1</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B98" s="3">
         <v>0</v>
@@ -10025,15 +10025,15 @@
         <v>144</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Z98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B99" s="3">
         <v>0</v>
@@ -10105,15 +10105,15 @@
         <v>0</v>
       </c>
       <c r="Y99" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z99" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="Z99" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="100" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B100" s="3">
         <v>0</v>
@@ -10185,15 +10185,15 @@
         <v>0</v>
       </c>
       <c r="Y100" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z100" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="Z100" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B101" s="3">
         <v>0</v>
@@ -10265,15 +10265,15 @@
         <v>0</v>
       </c>
       <c r="Y101" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z101" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="Z101" s="1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="102" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B102" s="3">
         <v>0</v>
@@ -10345,15 +10345,15 @@
         <v>0</v>
       </c>
       <c r="Y102" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z102" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="Z102" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B103" s="3">
         <v>0</v>
@@ -10425,15 +10425,15 @@
         <v>0</v>
       </c>
       <c r="Y103" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z103" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="Z103" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B104" s="3">
         <v>0</v>
@@ -10505,15 +10505,15 @@
         <v>0</v>
       </c>
       <c r="Y104" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z104" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="Z104" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="105" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B105" s="3">
         <v>0</v>
@@ -10585,15 +10585,15 @@
         <v>1</v>
       </c>
       <c r="Y105" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z105" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="Z105" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B106" s="3">
         <v>0</v>
@@ -10665,15 +10665,15 @@
         <v>0</v>
       </c>
       <c r="Y106" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z106" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B107" s="3">
         <v>0</v>
@@ -10745,15 +10745,15 @@
         <v>0</v>
       </c>
       <c r="Y107" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z107" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="Z107" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B108" s="3">
         <v>0</v>
@@ -10825,15 +10825,15 @@
         <v>1</v>
       </c>
       <c r="Y108" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z108" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="Z108" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="109" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B109" s="3">
         <v>0</v>
@@ -10905,15 +10905,15 @@
         <v>1</v>
       </c>
       <c r="Y109" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z109" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="Z109" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="110" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B110" s="3">
         <v>0</v>
@@ -10985,15 +10985,15 @@
         <v>0</v>
       </c>
       <c r="Y110" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z110" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B111" s="3">
         <v>0</v>
@@ -11065,15 +11065,15 @@
         <v>0</v>
       </c>
       <c r="Y111" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z111" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="Z111" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="112" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B112" s="3">
         <v>0</v>
@@ -11145,15 +11145,15 @@
         <v>0</v>
       </c>
       <c r="Y112" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z112" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="Z112" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="113" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B113" s="3">
         <v>0</v>
@@ -11225,15 +11225,15 @@
         <v>0</v>
       </c>
       <c r="Y113" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Z113" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="114" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B114" s="3">
         <v>0</v>
@@ -11305,15 +11305,15 @@
         <v>0</v>
       </c>
       <c r="Y114" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Z114" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="115" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B115" s="3">
         <v>0</v>
@@ -11385,15 +11385,15 @@
         <v>0</v>
       </c>
       <c r="Y115" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z115" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="Z115" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B116" s="3">
         <v>0</v>
@@ -11465,15 +11465,15 @@
         <v>0</v>
       </c>
       <c r="Y116" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z116" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="Z116" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B117" s="3">
         <v>0</v>
@@ -11545,15 +11545,15 @@
         <v>0</v>
       </c>
       <c r="Y117" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z117" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="Z117" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="118" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B118" s="3">
         <v>0</v>
@@ -11625,15 +11625,15 @@
         <v>1</v>
       </c>
       <c r="Y118" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z118" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="Z118" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="119" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B119" s="3">
         <v>0</v>
@@ -11705,15 +11705,15 @@
         <v>0</v>
       </c>
       <c r="Y119" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Z119" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="120" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B120" s="3">
         <v>0</v>
@@ -11785,15 +11785,15 @@
         <v>136</v>
       </c>
       <c r="Y120" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z120" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="Z120" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="121" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B121" s="3">
         <v>0</v>
@@ -11865,15 +11865,15 @@
         <v>0</v>
       </c>
       <c r="Y121" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z121" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="Z121" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="122" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B122" s="3">
         <v>0</v>
@@ -11945,15 +11945,15 @@
         <v>0</v>
       </c>
       <c r="Y122" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Z122" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B123" s="3">
         <v>0</v>
@@ -12025,15 +12025,15 @@
         <v>0</v>
       </c>
       <c r="Y123" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Z123" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B124" s="3">
         <v>0</v>
@@ -12105,15 +12105,15 @@
         <v>95</v>
       </c>
       <c r="Y124" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z124" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="Z124" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="125" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B125" s="3">
         <v>0</v>
@@ -12185,15 +12185,15 @@
         <v>0</v>
       </c>
       <c r="Y125" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z125" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="Z125" s="1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="126" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B126" s="3">
         <v>0</v>
@@ -12265,15 +12265,15 @@
         <v>281</v>
       </c>
       <c r="Y126" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z126" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="127" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B127" s="3">
         <v>0</v>
@@ -12345,15 +12345,15 @@
         <v>335</v>
       </c>
       <c r="Y127" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z127" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="Z127" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="128" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B128" s="3">
         <v>0</v>
@@ -12425,15 +12425,15 @@
         <v>0</v>
       </c>
       <c r="Y128" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z128" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="Z128" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="129" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B129" s="3">
         <v>0</v>
@@ -12505,15 +12505,15 @@
         <v>0</v>
       </c>
       <c r="Y129" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Z129" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B130" s="3">
         <v>0</v>
@@ -12585,15 +12585,15 @@
         <v>315</v>
       </c>
       <c r="Y130" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z130" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="Z130" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="131" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B131" s="3">
         <v>0</v>
@@ -12665,15 +12665,15 @@
         <v>0</v>
       </c>
       <c r="Y131" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Z131" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="132" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B132" s="3">
         <v>0</v>
@@ -12745,15 +12745,15 @@
         <v>0</v>
       </c>
       <c r="Y132" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Z132" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B133" s="3">
         <v>0</v>
@@ -12825,15 +12825,15 @@
         <v>0</v>
       </c>
       <c r="Y133" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z133" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="Z133" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="134" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B134" s="3">
         <v>0</v>
@@ -12905,15 +12905,15 @@
         <v>0</v>
       </c>
       <c r="Y134" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z134" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="Z134" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="135" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B135" s="3">
         <v>0</v>
@@ -12985,15 +12985,15 @@
         <v>0</v>
       </c>
       <c r="Y135" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z135" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B136" s="3">
         <v>0</v>
@@ -13065,15 +13065,15 @@
         <v>0</v>
       </c>
       <c r="Y136" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z136" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="Z136" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="137" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B137" s="3">
         <v>0</v>
@@ -13145,15 +13145,15 @@
         <v>287</v>
       </c>
       <c r="Y137" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Z137" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B138" s="3">
         <v>0</v>
@@ -13225,15 +13225,15 @@
         <v>7</v>
       </c>
       <c r="Y138" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Z138" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B139" s="3">
         <v>0</v>
@@ -13305,15 +13305,15 @@
         <v>0</v>
       </c>
       <c r="Y139" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z139" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="140" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B140" s="3">
         <v>0</v>
@@ -13385,15 +13385,15 @@
         <v>0</v>
       </c>
       <c r="Y140" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z140" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="Z140" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="141" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B141" s="3">
         <v>0</v>
@@ -13465,15 +13465,15 @@
         <v>10</v>
       </c>
       <c r="Y141" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Z141" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="142" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B142" s="3">
         <v>0</v>
@@ -13545,15 +13545,15 @@
         <v>0</v>
       </c>
       <c r="Y142" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Z142" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="143" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B143" s="3">
         <v>1</v>
@@ -13625,15 +13625,15 @@
         <v>0</v>
       </c>
       <c r="Y143" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z143" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="Z143" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="144" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B144" s="3">
         <v>0</v>
@@ -13705,15 +13705,15 @@
         <v>0</v>
       </c>
       <c r="Y144" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z144" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="145" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B145" s="3">
         <v>0</v>
@@ -13785,15 +13785,15 @@
         <v>81</v>
       </c>
       <c r="Y145" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z145" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="Z145" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="146" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B146" s="3">
         <v>0</v>
@@ -13865,15 +13865,15 @@
         <v>0</v>
       </c>
       <c r="Y146" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Z146" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B147" s="3">
         <v>0</v>
@@ -13945,15 +13945,15 @@
         <v>0</v>
       </c>
       <c r="Y147" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z147" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="Z147" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="148" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B148" s="3">
         <v>0</v>
@@ -14025,15 +14025,15 @@
         <v>0</v>
       </c>
       <c r="Y148" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z148" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="Z148" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="149" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B149" s="3">
         <v>0</v>
@@ -14105,15 +14105,15 @@
         <v>219</v>
       </c>
       <c r="Y149" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z149" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="Z149" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="150" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B150" s="3">
         <v>220</v>
@@ -14185,15 +14185,15 @@
         <v>0</v>
       </c>
       <c r="Y150" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z150" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="Z150" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="151" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B151" s="3">
         <v>0</v>
@@ -14265,15 +14265,15 @@
         <v>0</v>
       </c>
       <c r="Y151" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z151" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B152" s="3">
         <v>0</v>
@@ -14345,15 +14345,15 @@
         <v>227</v>
       </c>
       <c r="Y152" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Z152" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="153" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B153" s="3">
         <v>0</v>
@@ -14425,15 +14425,15 @@
         <v>0</v>
       </c>
       <c r="Y153" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z153" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="Z153" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B154" s="3">
         <v>0</v>
@@ -14505,15 +14505,15 @@
         <v>0</v>
       </c>
       <c r="Y154" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Z154" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="155" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B155" s="3">
         <v>0</v>
@@ -14585,15 +14585,15 @@
         <v>0</v>
       </c>
       <c r="Y155" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z155" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="Z155" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="156" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B156" s="3">
         <v>0</v>
@@ -14665,15 +14665,15 @@
         <v>0</v>
       </c>
       <c r="Y156" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z156" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="Z156" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="157" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B157" s="3">
         <v>0</v>
@@ -14745,15 +14745,15 @@
         <v>3</v>
       </c>
       <c r="Y157" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Z157" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B158" s="3">
         <v>0</v>
@@ -14825,15 +14825,15 @@
         <v>0</v>
       </c>
       <c r="Y158" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Z158" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B159" s="3">
         <v>0</v>
@@ -14905,15 +14905,15 @@
         <v>0</v>
       </c>
       <c r="Y159" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Z159" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="160" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B160" s="3">
         <v>0</v>
@@ -14985,15 +14985,15 @@
         <v>0</v>
       </c>
       <c r="Y160" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Z160" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B161" s="3">
         <v>0</v>
@@ -15065,15 +15065,15 @@
         <v>0</v>
       </c>
       <c r="Y161" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Z161" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="162" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B162" s="3">
         <v>0</v>
@@ -15145,15 +15145,15 @@
         <v>0</v>
       </c>
       <c r="Y162" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="Z162" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="Z162" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="163" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B163" s="3">
         <v>313</v>
@@ -15225,15 +15225,15 @@
         <v>0</v>
       </c>
       <c r="Y163" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Z163" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="164" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B164" s="3">
         <v>0</v>
@@ -15305,15 +15305,15 @@
         <v>2</v>
       </c>
       <c r="Y164" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z164" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="Z164" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="165" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B165" s="3">
         <v>0</v>
@@ -15385,15 +15385,15 @@
         <v>0</v>
       </c>
       <c r="Y165" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z165" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="Z165" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="166" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B166" s="3">
         <v>0</v>
@@ -15465,15 +15465,15 @@
         <v>0</v>
       </c>
       <c r="Y166" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Z166" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="167" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B167" s="3">
         <v>0</v>
@@ -15545,15 +15545,15 @@
         <v>0</v>
       </c>
       <c r="Y167" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Z167" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="168" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B168" s="3">
         <v>0</v>
@@ -15625,15 +15625,15 @@
         <v>0</v>
       </c>
       <c r="Y168" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="Z168" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="Z168" s="1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="169" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B169" s="3">
         <v>0</v>
@@ -15705,15 +15705,15 @@
         <v>1</v>
       </c>
       <c r="Y169" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Z169" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="170" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B170" s="3">
         <v>0</v>
@@ -15785,15 +15785,15 @@
         <v>0</v>
       </c>
       <c r="Y170" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z170" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="Z170" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="171" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B171" s="3">
         <v>0</v>
@@ -15865,15 +15865,15 @@
         <v>0</v>
       </c>
       <c r="Y171" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Z171" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="172" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B172" s="3">
         <v>0</v>
@@ -15945,15 +15945,15 @@
         <v>0</v>
       </c>
       <c r="Y172" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z172" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="Z172" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="173" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B173" s="3">
         <v>0</v>
@@ -16025,15 +16025,15 @@
         <v>0</v>
       </c>
       <c r="Y173" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Z173" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="174" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B174" s="3">
         <v>0</v>
@@ -16105,15 +16105,15 @@
         <v>0</v>
       </c>
       <c r="Y174" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Z174" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="175" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B175" s="3">
         <v>0</v>
@@ -16185,15 +16185,15 @@
         <v>0</v>
       </c>
       <c r="Y175" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z175" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="Z175" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="176" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B176" s="3">
         <v>0</v>
@@ -16265,15 +16265,15 @@
         <v>0</v>
       </c>
       <c r="Y176" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z176" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="Z176" s="1" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="177" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B177" s="3">
         <v>0</v>
@@ -16345,15 +16345,15 @@
         <v>0</v>
       </c>
       <c r="Y177" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="Z177" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="Z177" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="178" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B178" s="3">
         <v>0</v>
@@ -16425,15 +16425,15 @@
         <v>0</v>
       </c>
       <c r="Y178" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z178" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="179" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B179" s="3">
         <v>0</v>
@@ -16505,15 +16505,15 @@
         <v>18</v>
       </c>
       <c r="Y179" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Z179" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="180" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B180" s="3">
         <v>0</v>
@@ -16585,15 +16585,15 @@
         <v>0</v>
       </c>
       <c r="Y180" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z180" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="Z180" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="181" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B181" s="3">
         <v>0</v>
@@ -16665,15 +16665,15 @@
         <v>0</v>
       </c>
       <c r="Y181" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="Z181" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="Z181" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="182" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B182" s="3">
         <v>0</v>
@@ -16745,15 +16745,15 @@
         <v>0</v>
       </c>
       <c r="Y182" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="Z182" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="Z182" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="183" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B183" s="3">
         <v>0</v>
@@ -16825,15 +16825,15 @@
         <v>12</v>
       </c>
       <c r="Y183" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z183" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="184" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B184" s="3">
         <v>0</v>
@@ -16905,15 +16905,15 @@
         <v>0</v>
       </c>
       <c r="Y184" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z184" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="Z184" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="185" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B185" s="3">
         <v>0</v>
@@ -16985,15 +16985,15 @@
         <v>177</v>
       </c>
       <c r="Y185" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="Z185" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="Z185" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="186" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B186" s="3">
         <v>0</v>
@@ -17065,15 +17065,15 @@
         <v>0</v>
       </c>
       <c r="Y186" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Z186" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="187" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B187" s="3">
         <v>1</v>
@@ -17145,15 +17145,15 @@
         <v>0</v>
       </c>
       <c r="Y187" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z187" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="Z187" s="1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="188" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B188" s="3">
         <v>0</v>
@@ -17225,15 +17225,15 @@
         <v>0</v>
       </c>
       <c r="Y188" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="Z188" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="Z188" s="1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="189" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B189" s="3">
         <v>0</v>
@@ -17305,15 +17305,15 @@
         <v>0</v>
       </c>
       <c r="Y189" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z189" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="Z189" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="190" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B190" s="3">
         <v>0</v>
@@ -17385,15 +17385,15 @@
         <v>0</v>
       </c>
       <c r="Y190" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="Z190" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="Z190" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="191" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B191" s="3">
         <v>304</v>
@@ -17465,15 +17465,15 @@
         <v>0</v>
       </c>
       <c r="Y191" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Z191" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="Z191" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="192" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B192" s="3">
         <v>0</v>
@@ -17545,15 +17545,15 @@
         <v>0</v>
       </c>
       <c r="Y192" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Z192" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="193" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B193" s="3">
         <v>0</v>
@@ -17625,15 +17625,15 @@
         <v>0</v>
       </c>
       <c r="Y193" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Z193" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="194" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B194" s="3">
         <v>0</v>
@@ -17705,15 +17705,15 @@
         <v>0</v>
       </c>
       <c r="Y194" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Z194" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="195" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B195" s="3">
         <v>0</v>
@@ -17785,15 +17785,15 @@
         <v>0</v>
       </c>
       <c r="Y195" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z195" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="196" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B196" s="3">
         <v>0</v>
@@ -17865,15 +17865,15 @@
         <v>0</v>
       </c>
       <c r="Y196" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Z196" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="197" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B197" s="3">
         <v>0</v>
@@ -17945,15 +17945,15 @@
         <v>0</v>
       </c>
       <c r="Y197" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z197" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="Z197" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="198" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B198" s="3">
         <v>0</v>
@@ -18025,15 +18025,15 @@
         <v>0</v>
       </c>
       <c r="Y198" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="Z198" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="Z198" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="199" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B199" s="3">
         <v>0</v>
@@ -18105,15 +18105,15 @@
         <v>618</v>
       </c>
       <c r="Y199" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z199" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="Z199" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="200" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B200" s="3">
         <v>0</v>
@@ -18185,15 +18185,15 @@
         <v>0</v>
       </c>
       <c r="Y200" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Z200" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="201" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B201" s="3">
         <v>0</v>
@@ -18265,15 +18265,15 @@
         <v>0</v>
       </c>
       <c r="Y201" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z201" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="202" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B202" s="3">
         <v>0</v>
@@ -18345,15 +18345,15 @@
         <v>0</v>
       </c>
       <c r="Y202" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z202" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="Z202" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="203" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B203" s="3">
         <v>0</v>
@@ -18425,15 +18425,15 @@
         <v>0</v>
       </c>
       <c r="Y203" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="Z203" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="Z203" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="204" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B204" s="3">
         <v>0</v>
@@ -18505,15 +18505,15 @@
         <v>0</v>
       </c>
       <c r="Y204" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Z204" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="205" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B205" s="3">
         <v>0</v>
@@ -18585,15 +18585,15 @@
         <v>0</v>
       </c>
       <c r="Y205" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="Z205" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="Z205" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="206" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B206" s="3">
         <v>0</v>
@@ -18665,15 +18665,15 @@
         <v>0</v>
       </c>
       <c r="Y206" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Z206" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="207" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B207" s="3">
         <v>0</v>
@@ -18745,15 +18745,15 @@
         <v>0</v>
       </c>
       <c r="Y207" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z207" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="208" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B208" s="3">
         <v>0</v>
@@ -18825,15 +18825,15 @@
         <v>0</v>
       </c>
       <c r="Y208" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="Z208" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="Z208" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="209" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B209" s="3">
         <v>0</v>
@@ -18905,15 +18905,15 @@
         <v>1</v>
       </c>
       <c r="Y209" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="Z209" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="Z209" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="210" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B210" s="3">
         <v>0</v>
@@ -18985,15 +18985,15 @@
         <v>0</v>
       </c>
       <c r="Y210" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z210" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="Z210" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="211" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B211" s="3">
         <v>0</v>
@@ -19065,15 +19065,15 @@
         <v>0</v>
       </c>
       <c r="Y211" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z211" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="Z211" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="212" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B212" s="3">
         <v>0</v>
@@ -19145,15 +19145,15 @@
         <v>0</v>
       </c>
       <c r="Y212" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="Z212" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="Z212" s="1" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="213" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B213" s="3">
         <v>0</v>
@@ -19225,15 +19225,15 @@
         <v>0</v>
       </c>
       <c r="Y213" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z213" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="Z213" s="1" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="214" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B214" s="3">
         <v>0</v>
@@ -19305,15 +19305,15 @@
         <v>0</v>
       </c>
       <c r="Y214" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Z214" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="215" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B215" s="3">
         <v>1</v>
@@ -19385,15 +19385,15 @@
         <v>0</v>
       </c>
       <c r="Y215" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Z215" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="216" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B216" s="3">
         <v>0</v>
@@ -19465,15 +19465,15 @@
         <v>0</v>
       </c>
       <c r="Y216" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z216" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="Z216" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="217" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B217" s="3">
         <v>0</v>
@@ -19545,15 +19545,15 @@
         <v>0</v>
       </c>
       <c r="Y217" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Z217" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="218" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B218" s="3">
         <v>0</v>
@@ -19625,15 +19625,15 @@
         <v>0</v>
       </c>
       <c r="Y218" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Z218" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="219" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B219" s="3">
         <v>0</v>
@@ -19705,15 +19705,15 @@
         <v>1</v>
       </c>
       <c r="Y219" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z219" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="Z219" s="1" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="220" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B220" s="3">
         <v>0</v>
@@ -19785,15 +19785,15 @@
         <v>0</v>
       </c>
       <c r="Y220" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Z220" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="221" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B221" s="3">
         <v>0</v>
@@ -19865,15 +19865,15 @@
         <v>0</v>
       </c>
       <c r="Y221" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="Z221" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="Z221" s="1" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="222" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B222" s="3">
         <v>0</v>
@@ -19945,15 +19945,15 @@
         <v>0</v>
       </c>
       <c r="Y222" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Z222" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="223" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B223" s="3">
         <v>0</v>
@@ -20025,15 +20025,15 @@
         <v>1</v>
       </c>
       <c r="Y223" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z223" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="Z223" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="224" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B224" s="3">
         <v>0</v>
@@ -20105,15 +20105,15 @@
         <v>0</v>
       </c>
       <c r="Y224" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z224" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="Z224" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="225" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B225" s="3">
         <v>0</v>
@@ -20185,15 +20185,15 @@
         <v>0</v>
       </c>
       <c r="Y225" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Z225" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="226" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B226" s="3">
         <v>0</v>
@@ -20265,15 +20265,15 @@
         <v>0</v>
       </c>
       <c r="Y226" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="Z226" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="227" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B227" s="3">
         <v>0</v>
@@ -20345,15 +20345,15 @@
         <v>0</v>
       </c>
       <c r="Y227" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z227" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="Z227" s="1" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="228" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B228" s="3">
         <v>0</v>
@@ -20425,15 +20425,15 @@
         <v>0</v>
       </c>
       <c r="Y228" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Z228" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="229" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B229" s="3">
         <v>0</v>
@@ -20505,15 +20505,15 @@
         <v>31</v>
       </c>
       <c r="Y229" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z229" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="Z229" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="230" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B230" s="3">
         <v>0</v>
@@ -20585,15 +20585,15 @@
         <v>0</v>
       </c>
       <c r="Y230" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Z230" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="231" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B231" s="3">
         <v>0</v>
@@ -20665,15 +20665,15 @@
         <v>0</v>
       </c>
       <c r="Y231" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z231" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="Z231" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="232" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B232" s="3">
         <v>367</v>
@@ -20745,15 +20745,15 @@
         <v>0</v>
       </c>
       <c r="Y232" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Z232" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="233" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B233" s="3">
         <v>372</v>
@@ -20825,15 +20825,15 @@
         <v>0</v>
       </c>
       <c r="Y233" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="Z233" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="Z233" s="1" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="234" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B234" s="3">
         <v>0</v>
@@ -20905,15 +20905,15 @@
         <v>370</v>
       </c>
       <c r="Y234" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="Z234" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="Z234" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="235" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B235" s="3">
         <v>0</v>
@@ -20985,15 +20985,15 @@
         <v>0</v>
       </c>
       <c r="Y235" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="Z235" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="236" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B236" s="3">
         <v>0</v>
@@ -21065,15 +21065,15 @@
         <v>0</v>
       </c>
       <c r="Y236" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Z236" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="237" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B237" s="3">
         <v>0</v>
@@ -21145,15 +21145,15 @@
         <v>0</v>
       </c>
       <c r="Y237" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Z237" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="238" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B238" s="3">
         <v>0</v>
@@ -21225,15 +21225,15 @@
         <v>0</v>
       </c>
       <c r="Y238" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z238" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="239" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B239" s="3">
         <v>0</v>
@@ -21305,15 +21305,15 @@
         <v>0</v>
       </c>
       <c r="Y239" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Z239" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="240" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B240" s="3">
         <v>0</v>
@@ -21385,15 +21385,15 @@
         <v>0</v>
       </c>
       <c r="Y240" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="Z240" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="241" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B241" s="3">
         <v>0</v>
@@ -21465,15 +21465,15 @@
         <v>0</v>
       </c>
       <c r="Y241" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z241" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="242" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B242" s="3">
         <v>0</v>
@@ -21545,15 +21545,15 @@
         <v>0</v>
       </c>
       <c r="Y242" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="Z242" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="243" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B243" s="3">
         <v>0</v>
@@ -21625,15 +21625,15 @@
         <v>0</v>
       </c>
       <c r="Y243" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Z243" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="244" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B244" s="3">
         <v>0</v>
@@ -21705,15 +21705,15 @@
         <v>0</v>
       </c>
       <c r="Y244" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="Z244" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="Z244" s="1" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="245" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B245" s="3">
         <v>0</v>
@@ -21785,15 +21785,15 @@
         <v>0</v>
       </c>
       <c r="Y245" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="Z245" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="Z245" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="246" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B246" s="3">
         <v>0</v>
@@ -21865,15 +21865,15 @@
         <v>0</v>
       </c>
       <c r="Y246" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="Z246" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="Z246" s="1" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="247" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B247" s="3">
         <v>0</v>
@@ -21945,15 +21945,15 @@
         <v>0</v>
       </c>
       <c r="Y247" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="Z247" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="Z247" s="1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="248" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B248" s="3">
         <v>0</v>
@@ -22025,15 +22025,15 @@
         <v>0</v>
       </c>
       <c r="Y248" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Z248" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="249" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B249" s="3">
         <v>0</v>
@@ -22105,15 +22105,15 @@
         <v>0</v>
       </c>
       <c r="Y249" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="Z249" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="Z249" s="1" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="250" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B250" s="3">
         <v>0</v>
@@ -22185,15 +22185,15 @@
         <v>0</v>
       </c>
       <c r="Y250" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Z250" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="251" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B251" s="3">
         <v>0</v>
@@ -22265,15 +22265,15 @@
         <v>0</v>
       </c>
       <c r="Y251" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="Z251" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="252" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B252" s="3">
         <v>0</v>
@@ -22345,15 +22345,15 @@
         <v>0</v>
       </c>
       <c r="Y252" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z252" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="Z252" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="253" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B253" s="3">
         <v>0</v>
@@ -22425,15 +22425,15 @@
         <v>0</v>
       </c>
       <c r="Y253" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z253" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="Z253" s="1" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="254" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B254" s="3">
         <v>0</v>
@@ -22505,15 +22505,15 @@
         <v>0</v>
       </c>
       <c r="Y254" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z254" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="255" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B255" s="3">
         <v>0</v>
@@ -22585,15 +22585,15 @@
         <v>0</v>
       </c>
       <c r="Y255" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z255" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="Z255" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="256" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B256" s="3">
         <v>0</v>
@@ -22665,10 +22665,10 @@
         <v>0</v>
       </c>
       <c r="Y256" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z256" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="Z256" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/latest/analysis_data/from_pema/processing_batch1/taxonomic_assignments/Extended_final_table_July2019_ITS_noBlank.xlsx
+++ b/latest/analysis_data/from_pema/processing_batch1/taxonomic_assignments/Extended_final_table_July2019_ITS_noBlank.xlsx
@@ -66,12 +66,6 @@
     <t>ARMS_TZS_Angbat_20180711_20181106_MF500_ETOH</t>
   </si>
   <si>
-    <t>ARMS_Roscoff_BasBloS1_20180711_20181025_SF40_ETOH</t>
-  </si>
-  <si>
-    <t>ARMS_Roscoff_BasBloS1_20180711_20181025_SF40_DMSO</t>
-  </si>
-  <si>
     <t>ARMS_Koster_VH2_20180418_20180906_SF40_ETOH</t>
   </si>
   <si>
@@ -1912,6 +1906,12 @@
   </si>
   <si>
     <t>ARMS_Koster_VH2_20180418_20180906_SED100_DMSO</t>
+  </si>
+  <si>
+    <t>ARMS_Roscoff_BasBloS1_20180711_20181025_SF40_DMSO_A</t>
+  </si>
+  <si>
+    <t>ARMS_Roscoff_BasBloS1_20180711_20181025_SF40_ETOH_A</t>
   </si>
 </sst>
 </file>
@@ -2186,7 +2186,7 @@
   <dimension ref="A1:Z256"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2205,7 +2205,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -2241,39 +2241,39 @@
         <v>14</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3">
         <v>100</v>
@@ -2345,15 +2345,15 @@
         <v>0</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -2425,15 +2425,15 @@
         <v>101</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -2505,15 +2505,15 @@
         <v>242</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2585,15 +2585,15 @@
         <v>0</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -2665,15 +2665,15 @@
         <v>0</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -2745,15 +2745,15 @@
         <v>0</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2825,15 +2825,15 @@
         <v>0</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -2905,15 +2905,15 @@
         <v>0</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -2985,15 +2985,15 @@
         <v>0</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -3065,15 +3065,15 @@
         <v>0</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -3145,15 +3145,15 @@
         <v>0</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -3225,15 +3225,15 @@
         <v>0</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -3305,15 +3305,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
@@ -3385,15 +3385,15 @@
         <v>0</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -3465,15 +3465,15 @@
         <v>0</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -3545,15 +3545,15 @@
         <v>100</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -3625,15 +3625,15 @@
         <v>0</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -3705,15 +3705,15 @@
         <v>0</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -3785,15 +3785,15 @@
         <v>0</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -3865,15 +3865,15 @@
         <v>0</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -3945,15 +3945,15 @@
         <v>0</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -4025,15 +4025,15 @@
         <v>0</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -4105,15 +4105,15 @@
         <v>0</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -4185,15 +4185,15 @@
         <v>0</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B26" s="3">
         <v>557</v>
@@ -4265,15 +4265,15 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -4345,15 +4345,15 @@
         <v>0</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -4425,15 +4425,15 @@
         <v>0</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -4505,15 +4505,15 @@
         <v>0</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -4585,15 +4585,15 @@
         <v>0</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -4665,15 +4665,15 @@
         <v>38</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -4745,15 +4745,15 @@
         <v>0</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -4825,15 +4825,15 @@
         <v>0</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
@@ -4905,15 +4905,15 @@
         <v>0</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -4985,15 +4985,15 @@
         <v>0</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B36" s="3">
         <v>0</v>
@@ -5065,15 +5065,15 @@
         <v>0</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -5145,15 +5145,15 @@
         <v>0</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
@@ -5225,15 +5225,15 @@
         <v>0</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -5305,15 +5305,15 @@
         <v>0</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
@@ -5385,15 +5385,15 @@
         <v>0</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B41" s="3">
         <v>0</v>
@@ -5465,15 +5465,15 @@
         <v>0</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -5545,15 +5545,15 @@
         <v>3</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -5625,15 +5625,15 @@
         <v>2060</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -5705,15 +5705,15 @@
         <v>0</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B45" s="3">
         <v>334</v>
@@ -5785,15 +5785,15 @@
         <v>160</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B46" s="3">
         <v>0</v>
@@ -5865,15 +5865,15 @@
         <v>0</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B47" s="3">
         <v>0</v>
@@ -5945,15 +5945,15 @@
         <v>0</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B48" s="3">
         <v>0</v>
@@ -6025,15 +6025,15 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B49" s="3">
         <v>0</v>
@@ -6105,15 +6105,15 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -6185,15 +6185,15 @@
         <v>0</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B51" s="3">
         <v>0</v>
@@ -6265,15 +6265,15 @@
         <v>148</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
@@ -6345,15 +6345,15 @@
         <v>5</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B53" s="3">
         <v>0</v>
@@ -6425,15 +6425,15 @@
         <v>0</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B54" s="3">
         <v>0</v>
@@ -6505,15 +6505,15 @@
         <v>0</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -6585,15 +6585,15 @@
         <v>0</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
@@ -6665,15 +6665,15 @@
         <v>0</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -6745,15 +6745,15 @@
         <v>0</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -6825,15 +6825,15 @@
         <v>0</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -6905,15 +6905,15 @@
         <v>0</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Z59" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -6985,15 +6985,15 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -7065,15 +7065,15 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Z61" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -7145,15 +7145,15 @@
         <v>0</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
@@ -7225,15 +7225,15 @@
         <v>0</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -7305,15 +7305,15 @@
         <v>2</v>
       </c>
       <c r="Y64" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -7385,15 +7385,15 @@
         <v>0</v>
       </c>
       <c r="Y65" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -7465,15 +7465,15 @@
         <v>0</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B67" s="3">
         <v>0</v>
@@ -7545,15 +7545,15 @@
         <v>0</v>
       </c>
       <c r="Y67" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B68" s="3">
         <v>335</v>
@@ -7625,15 +7625,15 @@
         <v>0</v>
       </c>
       <c r="Y68" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Z68" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -7705,15 +7705,15 @@
         <v>0</v>
       </c>
       <c r="Y69" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Z69" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -7785,15 +7785,15 @@
         <v>0</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Z70" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B71" s="3">
         <v>0</v>
@@ -7865,15 +7865,15 @@
         <v>212</v>
       </c>
       <c r="Y71" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B72" s="3">
         <v>0</v>
@@ -7945,15 +7945,15 @@
         <v>0</v>
       </c>
       <c r="Y72" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Z72" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B73" s="3">
         <v>0</v>
@@ -8025,15 +8025,15 @@
         <v>0</v>
       </c>
       <c r="Y73" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B74" s="3">
         <v>0</v>
@@ -8105,15 +8105,15 @@
         <v>0</v>
       </c>
       <c r="Y74" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Z74" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B75" s="3">
         <v>0</v>
@@ -8185,15 +8185,15 @@
         <v>0</v>
       </c>
       <c r="Y75" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Z75" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B76" s="3">
         <v>0</v>
@@ -8265,15 +8265,15 @@
         <v>0</v>
       </c>
       <c r="Y76" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Z76" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B77" s="3">
         <v>0</v>
@@ -8345,15 +8345,15 @@
         <v>0</v>
       </c>
       <c r="Y77" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Z77" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B78" s="3">
         <v>0</v>
@@ -8425,15 +8425,15 @@
         <v>2</v>
       </c>
       <c r="Y78" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B79" s="3">
         <v>0</v>
@@ -8505,15 +8505,15 @@
         <v>0</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Z79" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
@@ -8585,15 +8585,15 @@
         <v>0</v>
       </c>
       <c r="Y80" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Z80" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B81" s="3">
         <v>0</v>
@@ -8665,15 +8665,15 @@
         <v>0</v>
       </c>
       <c r="Y81" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z81" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B82" s="3">
         <v>0</v>
@@ -8745,15 +8745,15 @@
         <v>0</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B83" s="3">
         <v>0</v>
@@ -8825,15 +8825,15 @@
         <v>0</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B84" s="3">
         <v>0</v>
@@ -8905,15 +8905,15 @@
         <v>0</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B85" s="3">
         <v>0</v>
@@ -8985,15 +8985,15 @@
         <v>0</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B86" s="3">
         <v>0</v>
@@ -9065,15 +9065,15 @@
         <v>0</v>
       </c>
       <c r="Y86" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Z86" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B87" s="3">
         <v>0</v>
@@ -9145,15 +9145,15 @@
         <v>0</v>
       </c>
       <c r="Y87" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Z87" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B88" s="3">
         <v>0</v>
@@ -9225,15 +9225,15 @@
         <v>0</v>
       </c>
       <c r="Y88" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Z88" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B89" s="3">
         <v>0</v>
@@ -9305,15 +9305,15 @@
         <v>0</v>
       </c>
       <c r="Y89" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Z89" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B90" s="3">
         <v>0</v>
@@ -9385,15 +9385,15 @@
         <v>0</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B91" s="3">
         <v>0</v>
@@ -9465,15 +9465,15 @@
         <v>0</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B92" s="3">
         <v>0</v>
@@ -9545,15 +9545,15 @@
         <v>0</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B93" s="3">
         <v>0</v>
@@ -9625,15 +9625,15 @@
         <v>0</v>
       </c>
       <c r="Y93" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z93" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B94" s="3">
         <v>0</v>
@@ -9705,15 +9705,15 @@
         <v>0</v>
       </c>
       <c r="Y94" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Z94" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B95" s="3">
         <v>0</v>
@@ -9785,15 +9785,15 @@
         <v>0</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Z95" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B96" s="3">
         <v>0</v>
@@ -9865,15 +9865,15 @@
         <v>0</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B97" s="3">
         <v>0</v>
@@ -9945,15 +9945,15 @@
         <v>1</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B98" s="3">
         <v>0</v>
@@ -10025,15 +10025,15 @@
         <v>144</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Z98" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B99" s="3">
         <v>0</v>
@@ -10105,15 +10105,15 @@
         <v>0</v>
       </c>
       <c r="Y99" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Z99" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B100" s="3">
         <v>0</v>
@@ -10185,15 +10185,15 @@
         <v>0</v>
       </c>
       <c r="Y100" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Z100" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B101" s="3">
         <v>0</v>
@@ -10265,15 +10265,15 @@
         <v>0</v>
       </c>
       <c r="Y101" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Z101" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B102" s="3">
         <v>0</v>
@@ -10345,15 +10345,15 @@
         <v>0</v>
       </c>
       <c r="Y102" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Z102" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B103" s="3">
         <v>0</v>
@@ -10425,15 +10425,15 @@
         <v>0</v>
       </c>
       <c r="Y103" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Z103" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B104" s="3">
         <v>0</v>
@@ -10505,15 +10505,15 @@
         <v>0</v>
       </c>
       <c r="Y104" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Z104" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B105" s="3">
         <v>0</v>
@@ -10585,15 +10585,15 @@
         <v>1</v>
       </c>
       <c r="Y105" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z105" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B106" s="3">
         <v>0</v>
@@ -10665,15 +10665,15 @@
         <v>0</v>
       </c>
       <c r="Y106" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Z106" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B107" s="3">
         <v>0</v>
@@ -10745,15 +10745,15 @@
         <v>0</v>
       </c>
       <c r="Y107" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Z107" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B108" s="3">
         <v>0</v>
@@ -10825,15 +10825,15 @@
         <v>1</v>
       </c>
       <c r="Y108" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Z108" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="109" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B109" s="3">
         <v>0</v>
@@ -10905,15 +10905,15 @@
         <v>1</v>
       </c>
       <c r="Y109" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Z109" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B110" s="3">
         <v>0</v>
@@ -10985,15 +10985,15 @@
         <v>0</v>
       </c>
       <c r="Y110" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Z110" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B111" s="3">
         <v>0</v>
@@ -11065,15 +11065,15 @@
         <v>0</v>
       </c>
       <c r="Y111" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Z111" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B112" s="3">
         <v>0</v>
@@ -11145,15 +11145,15 @@
         <v>0</v>
       </c>
       <c r="Y112" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Z112" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="113" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B113" s="3">
         <v>0</v>
@@ -11225,15 +11225,15 @@
         <v>0</v>
       </c>
       <c r="Y113" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Z113" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B114" s="3">
         <v>0</v>
@@ -11305,15 +11305,15 @@
         <v>0</v>
       </c>
       <c r="Y114" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Z114" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="115" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B115" s="3">
         <v>0</v>
@@ -11385,15 +11385,15 @@
         <v>0</v>
       </c>
       <c r="Y115" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Z115" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B116" s="3">
         <v>0</v>
@@ -11465,15 +11465,15 @@
         <v>0</v>
       </c>
       <c r="Y116" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="Z116" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B117" s="3">
         <v>0</v>
@@ -11545,15 +11545,15 @@
         <v>0</v>
       </c>
       <c r="Y117" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Z117" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B118" s="3">
         <v>0</v>
@@ -11625,15 +11625,15 @@
         <v>1</v>
       </c>
       <c r="Y118" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Z118" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="119" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B119" s="3">
         <v>0</v>
@@ -11705,15 +11705,15 @@
         <v>0</v>
       </c>
       <c r="Y119" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Z119" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B120" s="3">
         <v>0</v>
@@ -11785,15 +11785,15 @@
         <v>136</v>
       </c>
       <c r="Y120" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Z120" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="121" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B121" s="3">
         <v>0</v>
@@ -11865,15 +11865,15 @@
         <v>0</v>
       </c>
       <c r="Y121" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Z121" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="122" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B122" s="3">
         <v>0</v>
@@ -11945,15 +11945,15 @@
         <v>0</v>
       </c>
       <c r="Y122" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Z122" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B123" s="3">
         <v>0</v>
@@ -12025,15 +12025,15 @@
         <v>0</v>
       </c>
       <c r="Y123" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Z123" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B124" s="3">
         <v>0</v>
@@ -12105,15 +12105,15 @@
         <v>95</v>
       </c>
       <c r="Y124" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Z124" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="125" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B125" s="3">
         <v>0</v>
@@ -12185,15 +12185,15 @@
         <v>0</v>
       </c>
       <c r="Y125" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="Z125" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="126" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B126" s="3">
         <v>0</v>
@@ -12265,15 +12265,15 @@
         <v>281</v>
       </c>
       <c r="Y126" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Z126" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="127" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B127" s="3">
         <v>0</v>
@@ -12345,15 +12345,15 @@
         <v>335</v>
       </c>
       <c r="Y127" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Z127" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="128" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B128" s="3">
         <v>0</v>
@@ -12425,15 +12425,15 @@
         <v>0</v>
       </c>
       <c r="Y128" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Z128" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="129" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B129" s="3">
         <v>0</v>
@@ -12505,15 +12505,15 @@
         <v>0</v>
       </c>
       <c r="Y129" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Z129" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B130" s="3">
         <v>0</v>
@@ -12585,15 +12585,15 @@
         <v>315</v>
       </c>
       <c r="Y130" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Z130" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="131" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B131" s="3">
         <v>0</v>
@@ -12665,15 +12665,15 @@
         <v>0</v>
       </c>
       <c r="Y131" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Z131" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="132" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B132" s="3">
         <v>0</v>
@@ -12745,15 +12745,15 @@
         <v>0</v>
       </c>
       <c r="Y132" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Z132" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B133" s="3">
         <v>0</v>
@@ -12825,15 +12825,15 @@
         <v>0</v>
       </c>
       <c r="Y133" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Z133" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="134" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B134" s="3">
         <v>0</v>
@@ -12905,15 +12905,15 @@
         <v>0</v>
       </c>
       <c r="Y134" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Z134" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="135" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B135" s="3">
         <v>0</v>
@@ -12985,15 +12985,15 @@
         <v>0</v>
       </c>
       <c r="Y135" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Z135" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="136" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B136" s="3">
         <v>0</v>
@@ -13065,15 +13065,15 @@
         <v>0</v>
       </c>
       <c r="Y136" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Z136" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B137" s="3">
         <v>0</v>
@@ -13145,15 +13145,15 @@
         <v>287</v>
       </c>
       <c r="Y137" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Z137" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B138" s="3">
         <v>0</v>
@@ -13225,15 +13225,15 @@
         <v>7</v>
       </c>
       <c r="Y138" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Z138" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B139" s="3">
         <v>0</v>
@@ -13305,15 +13305,15 @@
         <v>0</v>
       </c>
       <c r="Y139" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="Z139" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="140" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B140" s="3">
         <v>0</v>
@@ -13385,15 +13385,15 @@
         <v>0</v>
       </c>
       <c r="Y140" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z140" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="141" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B141" s="3">
         <v>0</v>
@@ -13465,15 +13465,15 @@
         <v>10</v>
       </c>
       <c r="Y141" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Z141" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="142" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B142" s="3">
         <v>0</v>
@@ -13545,15 +13545,15 @@
         <v>0</v>
       </c>
       <c r="Y142" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="Z142" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="143" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B143" s="3">
         <v>1</v>
@@ -13625,15 +13625,15 @@
         <v>0</v>
       </c>
       <c r="Y143" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Z143" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="144" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B144" s="3">
         <v>0</v>
@@ -13705,15 +13705,15 @@
         <v>0</v>
       </c>
       <c r="Y144" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Z144" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="145" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B145" s="3">
         <v>0</v>
@@ -13785,15 +13785,15 @@
         <v>81</v>
       </c>
       <c r="Y145" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Z145" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="146" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B146" s="3">
         <v>0</v>
@@ -13865,15 +13865,15 @@
         <v>0</v>
       </c>
       <c r="Y146" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Z146" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B147" s="3">
         <v>0</v>
@@ -13945,15 +13945,15 @@
         <v>0</v>
       </c>
       <c r="Y147" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Z147" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="148" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B148" s="3">
         <v>0</v>
@@ -14025,15 +14025,15 @@
         <v>0</v>
       </c>
       <c r="Y148" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Z148" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="149" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B149" s="3">
         <v>0</v>
@@ -14105,15 +14105,15 @@
         <v>219</v>
       </c>
       <c r="Y149" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z149" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="150" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B150" s="3">
         <v>220</v>
@@ -14185,15 +14185,15 @@
         <v>0</v>
       </c>
       <c r="Y150" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Z150" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="151" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B151" s="3">
         <v>0</v>
@@ -14265,15 +14265,15 @@
         <v>0</v>
       </c>
       <c r="Y151" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Z151" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="152" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B152" s="3">
         <v>0</v>
@@ -14345,15 +14345,15 @@
         <v>227</v>
       </c>
       <c r="Y152" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Z152" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="153" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B153" s="3">
         <v>0</v>
@@ -14425,15 +14425,15 @@
         <v>0</v>
       </c>
       <c r="Y153" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Z153" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="154" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B154" s="3">
         <v>0</v>
@@ -14505,15 +14505,15 @@
         <v>0</v>
       </c>
       <c r="Y154" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Z154" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="155" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B155" s="3">
         <v>0</v>
@@ -14585,15 +14585,15 @@
         <v>0</v>
       </c>
       <c r="Y155" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="Z155" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="156" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B156" s="3">
         <v>0</v>
@@ -14665,15 +14665,15 @@
         <v>0</v>
       </c>
       <c r="Y156" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="Z156" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="157" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B157" s="3">
         <v>0</v>
@@ -14745,15 +14745,15 @@
         <v>3</v>
       </c>
       <c r="Y157" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Z157" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B158" s="3">
         <v>0</v>
@@ -14825,15 +14825,15 @@
         <v>0</v>
       </c>
       <c r="Y158" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Z158" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="159" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B159" s="3">
         <v>0</v>
@@ -14905,15 +14905,15 @@
         <v>0</v>
       </c>
       <c r="Y159" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Z159" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="160" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B160" s="3">
         <v>0</v>
@@ -14985,15 +14985,15 @@
         <v>0</v>
       </c>
       <c r="Y160" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Z160" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B161" s="3">
         <v>0</v>
@@ -15065,15 +15065,15 @@
         <v>0</v>
       </c>
       <c r="Y161" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Z161" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="162" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B162" s="3">
         <v>0</v>
@@ -15145,15 +15145,15 @@
         <v>0</v>
       </c>
       <c r="Y162" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="Z162" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="163" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B163" s="3">
         <v>313</v>
@@ -15225,15 +15225,15 @@
         <v>0</v>
       </c>
       <c r="Y163" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Z163" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="164" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B164" s="3">
         <v>0</v>
@@ -15305,15 +15305,15 @@
         <v>2</v>
       </c>
       <c r="Y164" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Z164" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="165" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B165" s="3">
         <v>0</v>
@@ -15385,15 +15385,15 @@
         <v>0</v>
       </c>
       <c r="Y165" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Z165" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="166" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B166" s="3">
         <v>0</v>
@@ -15465,15 +15465,15 @@
         <v>0</v>
       </c>
       <c r="Y166" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Z166" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="167" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B167" s="3">
         <v>0</v>
@@ -15545,15 +15545,15 @@
         <v>0</v>
       </c>
       <c r="Y167" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Z167" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="168" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B168" s="3">
         <v>0</v>
@@ -15625,15 +15625,15 @@
         <v>0</v>
       </c>
       <c r="Y168" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Z168" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="169" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B169" s="3">
         <v>0</v>
@@ -15705,15 +15705,15 @@
         <v>1</v>
       </c>
       <c r="Y169" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Z169" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B170" s="3">
         <v>0</v>
@@ -15785,15 +15785,15 @@
         <v>0</v>
       </c>
       <c r="Y170" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Z170" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="171" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B171" s="3">
         <v>0</v>
@@ -15865,15 +15865,15 @@
         <v>0</v>
       </c>
       <c r="Y171" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Z171" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="172" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B172" s="3">
         <v>0</v>
@@ -15945,15 +15945,15 @@
         <v>0</v>
       </c>
       <c r="Y172" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Z172" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="173" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B173" s="3">
         <v>0</v>
@@ -16025,15 +16025,15 @@
         <v>0</v>
       </c>
       <c r="Y173" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Z173" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="174" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B174" s="3">
         <v>0</v>
@@ -16105,15 +16105,15 @@
         <v>0</v>
       </c>
       <c r="Y174" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Z174" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="175" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B175" s="3">
         <v>0</v>
@@ -16185,15 +16185,15 @@
         <v>0</v>
       </c>
       <c r="Y175" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Z175" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="176" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B176" s="3">
         <v>0</v>
@@ -16265,15 +16265,15 @@
         <v>0</v>
       </c>
       <c r="Y176" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Z176" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="177" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B177" s="3">
         <v>0</v>
@@ -16345,15 +16345,15 @@
         <v>0</v>
       </c>
       <c r="Y177" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="Z177" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="178" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B178" s="3">
         <v>0</v>
@@ -16425,15 +16425,15 @@
         <v>0</v>
       </c>
       <c r="Y178" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Z178" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="179" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B179" s="3">
         <v>0</v>
@@ -16505,15 +16505,15 @@
         <v>18</v>
       </c>
       <c r="Y179" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Z179" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="180" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B180" s="3">
         <v>0</v>
@@ -16585,15 +16585,15 @@
         <v>0</v>
       </c>
       <c r="Y180" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Z180" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="181" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B181" s="3">
         <v>0</v>
@@ -16665,15 +16665,15 @@
         <v>0</v>
       </c>
       <c r="Y181" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Z181" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="182" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B182" s="3">
         <v>0</v>
@@ -16745,15 +16745,15 @@
         <v>0</v>
       </c>
       <c r="Y182" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Z182" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="183" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B183" s="3">
         <v>0</v>
@@ -16825,15 +16825,15 @@
         <v>12</v>
       </c>
       <c r="Y183" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="Z183" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="184" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B184" s="3">
         <v>0</v>
@@ -16905,15 +16905,15 @@
         <v>0</v>
       </c>
       <c r="Y184" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="Z184" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="185" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B185" s="3">
         <v>0</v>
@@ -16985,15 +16985,15 @@
         <v>177</v>
       </c>
       <c r="Y185" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Z185" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="186" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B186" s="3">
         <v>0</v>
@@ -17065,15 +17065,15 @@
         <v>0</v>
       </c>
       <c r="Y186" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Z186" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="187" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B187" s="3">
         <v>1</v>
@@ -17145,15 +17145,15 @@
         <v>0</v>
       </c>
       <c r="Y187" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Z187" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="188" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B188" s="3">
         <v>0</v>
@@ -17225,15 +17225,15 @@
         <v>0</v>
       </c>
       <c r="Y188" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="Z188" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="189" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B189" s="3">
         <v>0</v>
@@ -17305,15 +17305,15 @@
         <v>0</v>
       </c>
       <c r="Y189" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Z189" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="190" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B190" s="3">
         <v>0</v>
@@ -17385,15 +17385,15 @@
         <v>0</v>
       </c>
       <c r="Y190" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="Z190" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="191" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B191" s="3">
         <v>304</v>
@@ -17465,15 +17465,15 @@
         <v>0</v>
       </c>
       <c r="Y191" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Z191" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="192" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B192" s="3">
         <v>0</v>
@@ -17545,15 +17545,15 @@
         <v>0</v>
       </c>
       <c r="Y192" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="Z192" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="193" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B193" s="3">
         <v>0</v>
@@ -17625,15 +17625,15 @@
         <v>0</v>
       </c>
       <c r="Y193" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Z193" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="194" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B194" s="3">
         <v>0</v>
@@ -17705,15 +17705,15 @@
         <v>0</v>
       </c>
       <c r="Y194" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Z194" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="195" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B195" s="3">
         <v>0</v>
@@ -17785,15 +17785,15 @@
         <v>0</v>
       </c>
       <c r="Y195" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Z195" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="196" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B196" s="3">
         <v>0</v>
@@ -17865,15 +17865,15 @@
         <v>0</v>
       </c>
       <c r="Y196" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Z196" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="197" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B197" s="3">
         <v>0</v>
@@ -17945,15 +17945,15 @@
         <v>0</v>
       </c>
       <c r="Y197" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Z197" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="198" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B198" s="3">
         <v>0</v>
@@ -18025,15 +18025,15 @@
         <v>0</v>
       </c>
       <c r="Y198" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Z198" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="199" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B199" s="3">
         <v>0</v>
@@ -18105,15 +18105,15 @@
         <v>618</v>
       </c>
       <c r="Y199" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Z199" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="200" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B200" s="3">
         <v>0</v>
@@ -18185,15 +18185,15 @@
         <v>0</v>
       </c>
       <c r="Y200" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="Z200" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="201" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B201" s="3">
         <v>0</v>
@@ -18265,15 +18265,15 @@
         <v>0</v>
       </c>
       <c r="Y201" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Z201" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="202" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B202" s="3">
         <v>0</v>
@@ -18345,15 +18345,15 @@
         <v>0</v>
       </c>
       <c r="Y202" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Z202" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="203" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B203" s="3">
         <v>0</v>
@@ -18425,15 +18425,15 @@
         <v>0</v>
       </c>
       <c r="Y203" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Z203" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="204" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B204" s="3">
         <v>0</v>
@@ -18505,15 +18505,15 @@
         <v>0</v>
       </c>
       <c r="Y204" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="Z204" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="205" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B205" s="3">
         <v>0</v>
@@ -18585,15 +18585,15 @@
         <v>0</v>
       </c>
       <c r="Y205" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="Z205" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="206" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B206" s="3">
         <v>0</v>
@@ -18665,15 +18665,15 @@
         <v>0</v>
       </c>
       <c r="Y206" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="Z206" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="207" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B207" s="3">
         <v>0</v>
@@ -18745,15 +18745,15 @@
         <v>0</v>
       </c>
       <c r="Y207" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="Z207" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="208" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B208" s="3">
         <v>0</v>
@@ -18825,15 +18825,15 @@
         <v>0</v>
       </c>
       <c r="Y208" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Z208" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="209" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B209" s="3">
         <v>0</v>
@@ -18905,15 +18905,15 @@
         <v>1</v>
       </c>
       <c r="Y209" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Z209" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="210" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B210" s="3">
         <v>0</v>
@@ -18985,15 +18985,15 @@
         <v>0</v>
       </c>
       <c r="Y210" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Z210" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="211" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B211" s="3">
         <v>0</v>
@@ -19065,15 +19065,15 @@
         <v>0</v>
       </c>
       <c r="Y211" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Z211" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="212" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B212" s="3">
         <v>0</v>
@@ -19145,15 +19145,15 @@
         <v>0</v>
       </c>
       <c r="Y212" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="Z212" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="213" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B213" s="3">
         <v>0</v>
@@ -19225,15 +19225,15 @@
         <v>0</v>
       </c>
       <c r="Y213" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="Z213" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="214" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B214" s="3">
         <v>0</v>
@@ -19305,15 +19305,15 @@
         <v>0</v>
       </c>
       <c r="Y214" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Z214" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="215" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B215" s="3">
         <v>1</v>
@@ -19385,15 +19385,15 @@
         <v>0</v>
       </c>
       <c r="Y215" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Z215" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="216" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B216" s="3">
         <v>0</v>
@@ -19465,15 +19465,15 @@
         <v>0</v>
       </c>
       <c r="Y216" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Z216" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="217" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B217" s="3">
         <v>0</v>
@@ -19545,15 +19545,15 @@
         <v>0</v>
       </c>
       <c r="Y217" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Z217" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="218" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B218" s="3">
         <v>0</v>
@@ -19625,15 +19625,15 @@
         <v>0</v>
       </c>
       <c r="Y218" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="Z218" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="219" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B219" s="3">
         <v>0</v>
@@ -19705,15 +19705,15 @@
         <v>1</v>
       </c>
       <c r="Y219" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="Z219" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="220" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B220" s="3">
         <v>0</v>
@@ -19785,15 +19785,15 @@
         <v>0</v>
       </c>
       <c r="Y220" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Z220" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="221" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B221" s="3">
         <v>0</v>
@@ -19865,15 +19865,15 @@
         <v>0</v>
       </c>
       <c r="Y221" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="Z221" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="222" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B222" s="3">
         <v>0</v>
@@ -19945,15 +19945,15 @@
         <v>0</v>
       </c>
       <c r="Y222" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="Z222" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="223" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B223" s="3">
         <v>0</v>
@@ -20025,15 +20025,15 @@
         <v>1</v>
       </c>
       <c r="Y223" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Z223" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="224" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B224" s="3">
         <v>0</v>
@@ -20105,15 +20105,15 @@
         <v>0</v>
       </c>
       <c r="Y224" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Z224" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="225" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B225" s="3">
         <v>0</v>
@@ -20185,15 +20185,15 @@
         <v>0</v>
       </c>
       <c r="Y225" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="Z225" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="226" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B226" s="3">
         <v>0</v>
@@ -20265,15 +20265,15 @@
         <v>0</v>
       </c>
       <c r="Y226" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="Z226" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="227" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B227" s="3">
         <v>0</v>
@@ -20345,15 +20345,15 @@
         <v>0</v>
       </c>
       <c r="Y227" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="Z227" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="228" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B228" s="3">
         <v>0</v>
@@ -20425,15 +20425,15 @@
         <v>0</v>
       </c>
       <c r="Y228" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="Z228" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="229" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B229" s="3">
         <v>0</v>
@@ -20505,15 +20505,15 @@
         <v>31</v>
       </c>
       <c r="Y229" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Z229" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="230" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B230" s="3">
         <v>0</v>
@@ -20585,15 +20585,15 @@
         <v>0</v>
       </c>
       <c r="Y230" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="Z230" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="231" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B231" s="3">
         <v>0</v>
@@ -20665,15 +20665,15 @@
         <v>0</v>
       </c>
       <c r="Y231" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z231" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="232" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B232" s="3">
         <v>367</v>
@@ -20745,15 +20745,15 @@
         <v>0</v>
       </c>
       <c r="Y232" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Z232" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="233" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B233" s="3">
         <v>372</v>
@@ -20825,15 +20825,15 @@
         <v>0</v>
       </c>
       <c r="Y233" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="Z233" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="234" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B234" s="3">
         <v>0</v>
@@ -20905,15 +20905,15 @@
         <v>370</v>
       </c>
       <c r="Y234" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="Z234" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="235" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B235" s="3">
         <v>0</v>
@@ -20985,15 +20985,15 @@
         <v>0</v>
       </c>
       <c r="Y235" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="Z235" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="236" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B236" s="3">
         <v>0</v>
@@ -21065,15 +21065,15 @@
         <v>0</v>
       </c>
       <c r="Y236" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="Z236" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="237" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B237" s="3">
         <v>0</v>
@@ -21145,15 +21145,15 @@
         <v>0</v>
       </c>
       <c r="Y237" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Z237" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="238" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B238" s="3">
         <v>0</v>
@@ -21225,15 +21225,15 @@
         <v>0</v>
       </c>
       <c r="Y238" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="Z238" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="239" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B239" s="3">
         <v>0</v>
@@ -21305,15 +21305,15 @@
         <v>0</v>
       </c>
       <c r="Y239" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="Z239" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="240" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B240" s="3">
         <v>0</v>
@@ -21385,15 +21385,15 @@
         <v>0</v>
       </c>
       <c r="Y240" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Z240" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="241" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B241" s="3">
         <v>0</v>
@@ -21465,15 +21465,15 @@
         <v>0</v>
       </c>
       <c r="Y241" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Z241" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="242" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B242" s="3">
         <v>0</v>
@@ -21545,15 +21545,15 @@
         <v>0</v>
       </c>
       <c r="Y242" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="Z242" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="243" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B243" s="3">
         <v>0</v>
@@ -21625,15 +21625,15 @@
         <v>0</v>
       </c>
       <c r="Y243" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Z243" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="244" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B244" s="3">
         <v>0</v>
@@ -21705,15 +21705,15 @@
         <v>0</v>
       </c>
       <c r="Y244" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="Z244" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="245" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B245" s="3">
         <v>0</v>
@@ -21785,15 +21785,15 @@
         <v>0</v>
       </c>
       <c r="Y245" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="Z245" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="246" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B246" s="3">
         <v>0</v>
@@ -21865,15 +21865,15 @@
         <v>0</v>
       </c>
       <c r="Y246" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="Z246" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="247" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B247" s="3">
         <v>0</v>
@@ -21945,15 +21945,15 @@
         <v>0</v>
       </c>
       <c r="Y247" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="Z247" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="248" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B248" s="3">
         <v>0</v>
@@ -22025,15 +22025,15 @@
         <v>0</v>
       </c>
       <c r="Y248" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="Z248" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="249" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B249" s="3">
         <v>0</v>
@@ -22105,15 +22105,15 @@
         <v>0</v>
       </c>
       <c r="Y249" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="Z249" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="250" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B250" s="3">
         <v>0</v>
@@ -22185,15 +22185,15 @@
         <v>0</v>
       </c>
       <c r="Y250" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="Z250" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="251" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B251" s="3">
         <v>0</v>
@@ -22265,15 +22265,15 @@
         <v>0</v>
       </c>
       <c r="Y251" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="Z251" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="252" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B252" s="3">
         <v>0</v>
@@ -22345,15 +22345,15 @@
         <v>0</v>
       </c>
       <c r="Y252" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Z252" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="253" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B253" s="3">
         <v>0</v>
@@ -22425,15 +22425,15 @@
         <v>0</v>
       </c>
       <c r="Y253" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Z253" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="254" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B254" s="3">
         <v>0</v>
@@ -22505,15 +22505,15 @@
         <v>0</v>
       </c>
       <c r="Y254" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Z254" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="255" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B255" s="3">
         <v>0</v>
@@ -22585,15 +22585,15 @@
         <v>0</v>
       </c>
       <c r="Y255" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Z255" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="256" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B256" s="3">
         <v>0</v>
@@ -22665,10 +22665,10 @@
         <v>0</v>
       </c>
       <c r="Y256" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Z256" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
